--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koway\Desktop\creations\game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Coins-data\企劃\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF4B9C-B6E3-4506-B43C-9FF1A6266223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5712" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="4" r:id="rId1"/>
     <sheet name="表格說明" sheetId="3" r:id="rId2"/>
+    <sheet name="卡牌 (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="240">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -874,12 +867,169 @@
     <t>減1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>禁咒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冰天雪地</t>
+    </r>
+  </si>
+  <si>
+    <t>禁咒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>禁咒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰凍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>禁咒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>焚燒大地</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>禁咒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乙太風暴</t>
+    </r>
+  </si>
+  <si>
+    <t>灼傷</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>灼傷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力倍增</t>
+  </si>
+  <si>
+    <t>回復魔力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回魔</t>
+  </si>
+  <si>
+    <t>回魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前施放</t>
+  </si>
+  <si>
+    <t>提前觸發禁咒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提前觸發禁咒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,6 +1114,42 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -999,7 +1185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,6 +1226,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1355,23 +1568,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="104" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A22" zoomScale="104" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" customWidth="1"/>
-    <col min="28" max="28" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1541,7 +1754,7 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1595,7 +1808,7 @@
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1676,7 +1889,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1757,7 +1970,7 @@
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1838,7 +2051,7 @@
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1892,7 +2105,7 @@
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1976,7 +2189,7 @@
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2060,7 +2273,7 @@
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2144,7 +2357,7 @@
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -2231,7 +2444,7 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -2315,7 +2528,7 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -2373,7 +2586,7 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -2427,7 +2640,7 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -2481,7 +2694,7 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -2562,7 +2775,7 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -2616,7 +2829,7 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -2700,7 +2913,7 @@
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -2784,7 +2997,7 @@
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -2865,7 +3078,7 @@
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -2946,7 +3159,7 @@
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -3030,7 +3243,7 @@
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -3123,7 +3336,7 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -3213,7 +3426,7 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3001</v>
       </c>
@@ -3267,7 +3480,7 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3002</v>
       </c>
@@ -3321,7 +3534,7 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3003</v>
       </c>
@@ -3375,7 +3588,7 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3101</v>
       </c>
@@ -3459,7 +3672,7 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3102</v>
       </c>
@@ -3513,7 +3726,7 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3201</v>
       </c>
@@ -3595,7 +3808,7 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3202</v>
       </c>
@@ -3676,7 +3889,7 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3203</v>
       </c>
@@ -3730,7 +3943,7 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3301</v>
       </c>
@@ -3811,7 +4024,7 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3302</v>
       </c>
@@ -3886,7 +4099,7 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3303</v>
       </c>
@@ -3973,7 +4186,7 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3401</v>
       </c>
@@ -4060,7 +4273,7 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3402</v>
       </c>
@@ -4153,7 +4366,7 @@
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3501</v>
       </c>
@@ -4211,7 +4424,7 @@
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3502</v>
       </c>
@@ -4265,7 +4478,7 @@
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3601</v>
       </c>
@@ -4365,7 +4578,7 @@
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3602</v>
       </c>
@@ -4449,7 +4662,7 @@
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3701</v>
       </c>
@@ -4503,7 +4716,7 @@
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3801</v>
       </c>
@@ -4549,7 +4762,7 @@
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3802</v>
       </c>
@@ -4630,7 +4843,7 @@
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3901</v>
       </c>
@@ -4684,7 +4897,7 @@
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3902</v>
       </c>
@@ -4738,7 +4951,7 @@
       <c r="AN46" s="5"/>
       <c r="AO46" s="5"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3903</v>
       </c>
@@ -4819,7 +5032,7 @@
       <c r="AN47" s="5"/>
       <c r="AO47" s="5"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3904</v>
       </c>
@@ -4900,7 +5113,7 @@
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
     </row>
-    <row r="49" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
@@ -4915,7 +5128,7 @@
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
     </row>
-    <row r="50" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
@@ -4930,7 +5143,7 @@
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
     </row>
-    <row r="51" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
@@ -4945,7 +5158,7 @@
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
     </row>
-    <row r="52" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
@@ -4960,7 +5173,7 @@
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
     </row>
-    <row r="53" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
@@ -4975,7 +5188,7 @@
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
     </row>
-    <row r="54" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
@@ -4990,7 +5203,7 @@
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
     </row>
-    <row r="55" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
@@ -5005,7 +5218,7 @@
       <c r="AN55" s="5"/>
       <c r="AO55" s="5"/>
     </row>
-    <row r="56" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
@@ -5020,7 +5233,7 @@
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
     </row>
-    <row r="57" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -5035,7 +5248,7 @@
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
     </row>
-    <row r="58" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="58" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
@@ -5050,7 +5263,7 @@
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
     </row>
-    <row r="59" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -5065,7 +5278,7 @@
       <c r="AN59" s="5"/>
       <c r="AO59" s="5"/>
     </row>
-    <row r="60" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
@@ -5080,7 +5293,7 @@
       <c r="AN60" s="5"/>
       <c r="AO60" s="5"/>
     </row>
-    <row r="61" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
@@ -5095,7 +5308,7 @@
       <c r="AN61" s="5"/>
       <c r="AO61" s="5"/>
     </row>
-    <row r="62" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
@@ -5110,7 +5323,7 @@
       <c r="AN62" s="5"/>
       <c r="AO62" s="5"/>
     </row>
-    <row r="63" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
@@ -5125,7 +5338,7 @@
       <c r="AN63" s="5"/>
       <c r="AO63" s="5"/>
     </row>
-    <row r="64" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
@@ -5140,7 +5353,7 @@
       <c r="AN64" s="5"/>
       <c r="AO64" s="5"/>
     </row>
-    <row r="65" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
@@ -5155,7 +5368,7 @@
       <c r="AN65" s="5"/>
       <c r="AO65" s="5"/>
     </row>
-    <row r="66" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
@@ -5170,7 +5383,7 @@
       <c r="AN66" s="5"/>
       <c r="AO66" s="5"/>
     </row>
-    <row r="67" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -5185,7 +5398,7 @@
       <c r="AN67" s="5"/>
       <c r="AO67" s="5"/>
     </row>
-    <row r="68" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -5200,7 +5413,7 @@
       <c r="AN68" s="5"/>
       <c r="AO68" s="5"/>
     </row>
-    <row r="69" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
@@ -5215,7 +5428,7 @@
       <c r="AN69" s="5"/>
       <c r="AO69" s="5"/>
     </row>
-    <row r="70" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
@@ -5230,7 +5443,7 @@
       <c r="AN70" s="5"/>
       <c r="AO70" s="5"/>
     </row>
-    <row r="71" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
@@ -5245,7 +5458,7 @@
       <c r="AN71" s="5"/>
       <c r="AO71" s="5"/>
     </row>
-    <row r="72" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
@@ -5260,7 +5473,7 @@
       <c r="AN72" s="5"/>
       <c r="AO72" s="5"/>
     </row>
-    <row r="73" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
@@ -5275,7 +5488,7 @@
       <c r="AN73" s="5"/>
       <c r="AO73" s="5"/>
     </row>
-    <row r="74" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
@@ -5290,7 +5503,7 @@
       <c r="AN74" s="5"/>
       <c r="AO74" s="5"/>
     </row>
-    <row r="75" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -5305,7 +5518,7 @@
       <c r="AN75" s="5"/>
       <c r="AO75" s="5"/>
     </row>
-    <row r="76" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -5320,7 +5533,7 @@
       <c r="AN76" s="5"/>
       <c r="AO76" s="5"/>
     </row>
-    <row r="77" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -5335,7 +5548,7 @@
       <c r="AN77" s="5"/>
       <c r="AO77" s="5"/>
     </row>
-    <row r="78" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -5353,7 +5566,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5361,102 +5574,90 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$12</xm:f>
           </x14:formula1>
           <xm:sqref>G28:G29 R28:R29 AC28:AC29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$12</xm:f>
           </x14:formula1>
           <xm:sqref>N1:N2 N4:N14 N16:N28 Y36:Y37 AJ36:AJ37 Y40 N30:N40 N42:N1048576 Y48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$6</xm:f>
           </x14:formula1>
           <xm:sqref>N3 N15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>R2:R27 G2:G27 G30:G31 R30:R31 G34:G35 G39:G40 AC2:AC27 AC30:AC31 R40:R41 AC40 G44 G47 R47:R48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>表格說明!$H$2:$H$20</xm:f>
           </x14:formula1>
           <xm:sqref>M29 AE1:AE94 I1:I1048576 T1:T40 T42:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$13</xm:f>
           </x14:formula1>
           <xm:sqref>O29 AG1:AG94 U41 V1:V40 K1:K1048576 V42:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
           <xm:sqref>Y1:Y35 N41 AJ1:AJ35 Y38:Y39 AJ38:AJ94 Y41:Y47 Y49:Y1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$9</xm:f>
           </x14:formula1>
           <xm:sqref>AL1:AL94 P1:P1048576 AA1:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$30</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H1048576 AD1:AD94 S1:S1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>表格說明!$M$2:$M$22</xm:f>
           </x14:formula1>
           <xm:sqref>M1:M28 AI1:AI94 M30:M1048576 X1:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>G32:G33 R34 R36:R37 G36:G38 AC36:AC37 AC34 G41:G43 G45:G46 G48:G71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>R32:R33 R35 AC41:AC51 AC32:AC33 AC35 R38:R39 AC38:AC39 R42:R46 R49:R51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>表格說明!$J$2:$J$16</xm:f>
           </x14:formula1>
-          <xm:sqref>U1:U35 J41 AF1:AF35 U38:U39 AF38:AF94 T41 U42:U47 U49:U1048576</xm:sqref>
+          <xm:sqref>T41 AF1:AF94 U1:U40 J1:J1048576 U42:U1048576 N29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
-            <xm:f>表格說明!$J$2:$J$16</xm:f>
+            <xm:f>表格說明!$E$2:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>N29</xm:sqref>
+          <xm:sqref>H1:H1048576 S1:S1048576 AD1:AD94</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
-            <xm:f>表格說明!$J$2:$J$16</xm:f>
+            <xm:f>表格說明!$E$2:$E$24</xm:f>
           </x14:formula1>
-          <xm:sqref>U36:U37 AF36:AF37 U40 J1:J40 J42:J1048576 U48</xm:sqref>
+          <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5465,34 +5666,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" customWidth="1"/>
+    <col min="23" max="23" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5545,7 +5746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -5586,7 +5787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>56</v>
       </c>
@@ -5615,17 +5816,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>236</v>
+      </c>
       <c r="H4" t="s">
         <v>65</v>
       </c>
@@ -5648,16 +5845,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" t="s">
         <v>73</v>
       </c>
@@ -5674,12 +5872,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
@@ -5700,12 +5898,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>70</v>
@@ -5717,50 +5915,58 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>86</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>87</v>
       </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>88</v>
       </c>
@@ -5768,7 +5974,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>90</v>
       </c>
@@ -5776,7 +5982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>92</v>
       </c>
@@ -5784,12 +5990,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>95</v>
       </c>
@@ -5798,7 +6004,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
         <v>97</v>
       </c>
@@ -5806,9 +6012,29 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="21" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5816,4 +6042,1112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C186E0B-6A53-4A8A-9F83-18DF1AC6DC87}">
+  <dimension ref="A1:AO78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="5">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+    </row>
+    <row r="50" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+    </row>
+    <row r="51" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+    </row>
+    <row r="52" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+    </row>
+    <row r="53" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+    </row>
+    <row r="54" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+    </row>
+    <row r="55" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+    </row>
+    <row r="56" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+    </row>
+    <row r="57" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+    </row>
+    <row r="58" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+    </row>
+    <row r="59" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+    </row>
+    <row r="60" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+    </row>
+    <row r="61" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+    </row>
+    <row r="62" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+    </row>
+    <row r="63" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+    </row>
+    <row r="64" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+    </row>
+    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+    </row>
+    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+    </row>
+    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+    </row>
+    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+    </row>
+    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="5"/>
+    </row>
+    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+    </row>
+    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+    </row>
+    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="5"/>
+    </row>
+    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+    </row>
+    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+    </row>
+    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+    </row>
+    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="5"/>
+    </row>
+    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="5"/>
+      <c r="AO77" s="5"/>
+    </row>
+    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94" xr:uid="{A639E30D-6B04-4E9D-8988-543154724A1B}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{264F00E7-8951-4B72-B25F-0B3C853F7A6B}">
+          <x14:formula1>
+            <xm:f>表格說明!$J$2:$J$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>T41 AF1:AF94 N29 U42:U1048576 U1:U40 J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD1E01D5-80D6-4241-AB6F-B1E7317E0303}">
+          <x14:formula1>
+            <xm:f>表格說明!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>R32:R33 R35 AC41:AC51 AC32:AC33 AC35 R38:R39 AC38:AC39 R42:R46 R49:R51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89B6EDF2-40B4-437D-83D8-80CB113FB976}">
+          <x14:formula1>
+            <xm:f>表格說明!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G32:G33 R34 R36:R37 G36:G38 AC36:AC37 AC34 G41:G43 G45:G46 G48:G71</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A596839B-2A67-4613-BF31-0FCADEF8C2AB}">
+          <x14:formula1>
+            <xm:f>表格說明!$M$2:$M$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI1:AI94 M30:M1048576 X1:X1048576 M1:M28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E4865F5-AF27-4E39-9594-FEC867BD1095}">
+          <x14:formula1>
+            <xm:f>表格說明!$P$2:$P$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>AL1:AL94 AA1:AA1048576 P1:P1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E56FAA30-68AB-451C-88A9-BF60887009E2}">
+          <x14:formula1>
+            <xm:f>表格說明!$N$2:$N$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y49:Y1048576 N41 AJ1:AJ35 Y38:Y39 AJ38:AJ94 Y41:Y47 Y1:Y35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D157B7C-CFE3-4AA3-BC45-1FF17AA76DD2}">
+          <x14:formula1>
+            <xm:f>表格說明!$P$2:$P$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>O29 AG1:AG94 U41 V42:V1048576 V1:V40 K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{033BAF42-D5D1-4FB9-BD04-3C5A621B9A8C}">
+          <x14:formula1>
+            <xm:f>表格說明!$H$2:$H$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>M29 AE1:AE94 T42:T1048576 T1:T40 I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE7CEB8E-BDA6-493E-B289-8E10ED0C6653}">
+          <x14:formula1>
+            <xm:f>表格說明!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>R47:R48 G30:G31 R30:R31 G34:G35 G39:G40 AC2:AC27 AC30:AC31 R40:R41 AC40 G44 G47 R2:R27 G2:G27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FC9CDF8-56EC-411D-BEFC-769DF5100322}">
+          <x14:formula1>
+            <xm:f>表格說明!$N$2:$N$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B579E5EC-2C33-4B01-B21E-C67C6599AED8}">
+          <x14:formula1>
+            <xm:f>表格說明!$N$2:$N$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y48 N16:N28 Y36:Y37 AJ36:AJ37 Y40 N30:N40 N42:N1048576 N1:N14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4EFBF862-8763-4F36-9B0B-2B27EDB26BD8}">
+          <x14:formula1>
+            <xm:f>表格說明!$C$2:$C$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G28:G29 R28:R29 AC28:AC29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57BA1C28-27F3-4BBF-9087-1CA8ACADA50B}">
+          <x14:formula1>
+            <xm:f>表格說明!$E$2:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BBCEEC3-259A-4FDF-957D-A020DC3882FF}">
+          <x14:formula1>
+            <xm:f>表格說明!$E$2:$E$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD1:AD94 S1:S1048576 H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Coins-data\企劃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF4B9C-B6E3-4506-B43C-9FF1A6266223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F832B-130B-483E-ADB1-DB67BD96A9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="4" r:id="rId1"/>
     <sheet name="表格說明" sheetId="3" r:id="rId2"/>
     <sheet name="卡牌 (2)" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="246">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,245 +154,233 @@
     <t>我方攻擊</t>
   </si>
   <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>我方抽牌</t>
+  </si>
+  <si>
+    <t>名稱</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發時機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值最高99</t>
+  </si>
+  <si>
+    <t>增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定時間</t>
+  </si>
+  <si>
+    <t>血戰</t>
+  </si>
+  <si>
+    <t>我方出牌</t>
+  </si>
+  <si>
+    <t>我方回合開始</t>
+  </si>
+  <si>
+    <t>敵方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}、{1}、{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1為雙倍</t>
+  </si>
+  <si>
+    <t>減益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疊層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相關行動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方回合結束</t>
+  </si>
+  <si>
+    <t>我方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即</t>
+  </si>
+  <si>
+    <t>對方攻擊</t>
+  </si>
+  <si>
+    <t>敵方回合開始</t>
+  </si>
+  <si>
+    <t>雙方</t>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加外來牌至手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永續</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨機</t>
+  </si>
+  <si>
+    <t>抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨立</t>
+  </si>
+  <si>
+    <t>對方受傷</t>
+  </si>
+  <si>
+    <t>我方受傷</t>
+  </si>
+  <si>
+    <t>狀態消除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對方抽牌</t>
+  </si>
+  <si>
     <t>更改牌效果</t>
-  </si>
-  <si>
-    <t>刷新</t>
-  </si>
-  <si>
-    <t>我方抽牌</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸發時機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數值最高99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力侵蝕</t>
+  </si>
+  <si>
+    <t>無效下一張牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸彈</t>
+  </si>
+  <si>
+    <t>硬殼</t>
+  </si>
+  <si>
+    <t>抽牌痛覺</t>
+  </si>
+  <si>
+    <t> 超量回血</t>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成傷害</t>
-  </si>
-  <si>
-    <t>-1代表雙倍</t>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定時間</t>
+    <t>疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方回合開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>血戰</t>
-  </si>
-  <si>
-    <t>&gt;7</t>
-  </si>
-  <si>
-    <t>我方出牌</t>
-  </si>
-  <si>
-    <t>我方回合開始</t>
-  </si>
-  <si>
-    <t>敵方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}、{1}、{2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1為雙倍</t>
-  </si>
-  <si>
-    <t>減益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回復自身血量</t>
-  </si>
-  <si>
-    <t>疊層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相關行動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方回合結束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成%傷害</t>
-  </si>
-  <si>
-    <t>疊加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即</t>
-  </si>
-  <si>
-    <t>對方攻擊</t>
-  </si>
-  <si>
-    <t>敵方回合開始</t>
-  </si>
-  <si>
-    <t>雙方</t>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加外來牌至手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加牌至手牌</t>
-  </si>
-  <si>
-    <t>永續</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隨機</t>
-  </si>
-  <si>
-    <t>抽牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獨立</t>
-  </si>
-  <si>
-    <t>對方受傷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ID}xN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜尋牌組加入手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方受傷</t>
-  </si>
-  <si>
-    <t>不管時機和選擇 使擁有牌的一方直接施放某張牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態消除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除狀態類型是無以外的Buff(增益or 減益)</t>
-  </si>
-  <si>
-    <t>對方抽牌</t>
-  </si>
-  <si>
-    <t>更改牌效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>將某張牌覆蓋成另一張，但到棄牌區後會復原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力侵蝕</t>
-  </si>
-  <si>
-    <t>使用攻擊法術時，攻擊法術的傷害會加上此效果數值</t>
-  </si>
-  <si>
-    <t>無效下一張牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持續時間一直到對方出下一張牌</t>
-  </si>
-  <si>
-    <t>反傷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>還在想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸彈</t>
-  </si>
-  <si>
-    <t>硬殼</t>
-  </si>
-  <si>
-    <t>每次只受到1傷害</t>
-  </si>
-  <si>
-    <t>抽牌痛覺</t>
-  </si>
-  <si>
-    <t>每次抽牌受傷</t>
-  </si>
-  <si>
-    <t> 超量回血</t>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疊加</t>
+    <t>血戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,67 +388,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>連擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方出牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方回合開始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血戰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疊加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血戰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前層數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>減去目前層數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -651,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽排痛覺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以有buff的人為我方  討論觸發條件 時間計算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共難</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,10 +620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合受到傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰毒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,10 +706,6 @@
   </si>
   <si>
     <t>我方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此牌傷害量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -897,34 +818,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>禁咒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>冰凍</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>禁咒</t>
     </r>
     <r>
@@ -977,9 +870,87 @@
     <t>灼傷</t>
   </si>
   <si>
+    <t>法力倍增</t>
+  </si>
+  <si>
+    <t>回復魔力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回魔</t>
+  </si>
+  <si>
+    <t>回魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前施放</t>
+  </si>
+  <si>
+    <t>提前觸發禁咒</t>
+  </si>
+  <si>
+    <t>出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回復血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將自己的抽牌覆蓋成另一張，數值填寫為牌ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>提前觸發禁咒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>禁咒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰凍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
@@ -991,37 +962,184 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法力倍增</t>
-  </si>
-  <si>
-    <t>回復魔力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回魔</t>
-  </si>
-  <si>
-    <t>回魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前施放</t>
-  </si>
-  <si>
-    <t>提前觸發禁咒</t>
+    <t>立刻觸發禁咒最終效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加牌至手牌，數值填寫為牌ID，可以多張牌 ex:{ID}、{ID}、{ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有傷害加值，回合結束對自己造成層數傷害，覆蓋類型為疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用攻擊法術時，攻擊法術的傷害會加上此效果數值，覆蓋類型為疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對方出下一張牌時無效那張牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>攻擊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只受到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>點</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傷害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超量回血</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果內容為抽牌跟傷害組合而成，覆蓋類型為疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次出牌回{數值}血，覆蓋類型為疊加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊時降低傷害，疊層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌時造成{數值}傷害，疊層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合結束時會施加本回合使用魔力的第二效果(由牌決定)ex:使用5點魔力並附加5點的冰凍效果，並累計魔力，在最後回合結束時施加等同魔力的傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{數值}%傷害，覆蓋類型為刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加下次傷害</t>
+  </si>
+  <si>
+    <t>增加下次傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搶走並直接使用對方的下一張牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將目前有的血戰效果歸0，不扣血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除血戰</t>
+  </si>
+  <si>
+    <t>消除血戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命運</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>提前觸發禁咒</t>
+      <t>痛苦</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次戰鬥，每次攻擊對對方造成傷害加值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除隨機Buff(永續以外){數值}(1為消除增益,2為消除減益)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成傷害，-1為雙倍，-2為本回合受到傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若為增益類型，則當回合傷害皆增加，-1為雙倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在數回合後造成{數值}傷害，可以用造成傷害的方式解除(打自己跟對方都可以)，需要造成的傷害值寫死為固定數值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,7 +1147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,13 +1162,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1129,14 +1240,19 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
@@ -1144,11 +1260,45 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1185,7 +1335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,13 +1345,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1225,7 +1375,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1243,16 +1393,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,20 +1736,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="104" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
-    <col min="28" max="28" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1703,11 +1891,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C2">
@@ -1740,26 +1928,26 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>132</v>
+      <c r="B3" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1794,26 +1982,26 @@
       <c r="Q3">
         <v>3</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>133</v>
+      <c r="B4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1875,26 +2063,26 @@
       <c r="AB4">
         <v>1</v>
       </c>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>134</v>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1956,26 +2144,26 @@
       <c r="AB5">
         <v>2</v>
       </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>135</v>
+      <c r="B6" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2037,26 +2225,26 @@
       <c r="AB6">
         <v>10</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>137</v>
+      <c r="B7" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2068,10 +2256,10 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -2091,26 +2279,26 @@
       <c r="Q7">
         <v>-1</v>
       </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>138</v>
+      <c r="B8" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2149,7 +2337,7 @@
         <v>18</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="T8" t="s">
         <v>18</v>
@@ -2161,7 +2349,7 @@
         <v>18</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
         <v>18</v>
@@ -2170,31 +2358,31 @@
         <v>18</v>
       </c>
       <c r="AA8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>136</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2245,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
         <v>18</v>
@@ -2259,26 +2447,26 @@
       <c r="AB9">
         <v>3</v>
       </c>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>139</v>
+      <c r="B10" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2305,7 +2493,7 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s">
         <v>20</v>
@@ -2329,7 +2517,7 @@
         <v>18</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
         <v>18</v>
@@ -2343,26 +2531,26 @@
       <c r="AB10">
         <v>1</v>
       </c>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>1010</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>140</v>
+      <c r="B11" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2389,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="P11" t="s">
         <v>20</v>
@@ -2413,43 +2601,41 @@
         <v>22</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="X11" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="4">
         <v>1</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>1011</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>141</v>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2490,7 +2676,7 @@
       <c r="S12" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="U12" t="s">
@@ -2500,40 +2686,40 @@
         <v>22</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="X12" t="s">
         <v>28</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="4">
         <v>1</v>
       </c>
-      <c r="AA12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AA12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>1012</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>143</v>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2545,25 +2731,25 @@
         <v>30</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
@@ -2572,26 +2758,29 @@
       <c r="Q13">
         <v>-1</v>
       </c>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>1013</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>148</v>
+      <c r="B14" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2599,13 +2788,13 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -2615,37 +2804,41 @@
         <v>22</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>1014</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>151</v>
+      <c r="B15" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2680,26 +2873,29 @@
       <c r="Q15">
         <v>5</v>
       </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>1015</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>142</v>
+      <c r="B16" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2738,7 +2934,7 @@
         <v>30</v>
       </c>
       <c r="S16" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="T16" t="s">
         <v>33</v>
@@ -2752,35 +2948,36 @@
       <c r="X16" t="s">
         <v>34</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>20</v>
+      <c r="Y16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>1016</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>150</v>
+      <c r="B17" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2792,49 +2989,52 @@
         <v>30</v>
       </c>
       <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>60</v>
+      <c r="N17" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="P17" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>1017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>153</v>
+      <c r="B18" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2846,22 +3046,22 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2879,46 +3079,47 @@
         <v>18</v>
       </c>
       <c r="U18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V18" t="s">
         <v>22</v>
       </c>
       <c r="W18" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="X18" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="Y18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AB18">
         <v>2</v>
       </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19">
         <v>1018</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>166</v>
+      <c r="B19" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2927,25 +3128,25 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s">
         <v>20</v>
@@ -2954,55 +3155,55 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="U19" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z19">
+        <v>89</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z19" s="4">
         <v>1</v>
       </c>
-      <c r="AA19" t="s">
-        <v>105</v>
+      <c r="AA19" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="AB19">
         <v>1</v>
       </c>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>1019</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>167</v>
+      <c r="B20" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3011,25 +3212,25 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s">
         <v>20</v>
@@ -3038,52 +3239,52 @@
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="V20" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="X20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z20">
+        <v>89</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z20" s="4">
         <v>1</v>
       </c>
-      <c r="AA20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AA20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>1020</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>159</v>
+      <c r="B21" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3092,79 +3293,80 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="N21" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>5</v>
       </c>
       <c r="R21" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="S21" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="T21" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="U21" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="V21" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="X21" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>162</v>
+        <v>140</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>1021</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>156</v>
+      <c r="B22" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3173,82 +3375,80 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="Q22">
         <v>10</v>
       </c>
       <c r="R22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="T22" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="X22" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z22">
+        <v>94</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z22" s="4">
         <v>0</v>
       </c>
-      <c r="AA22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AA22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>1022</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>157</v>
+      <c r="B23" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3257,91 +3457,91 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="L23" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="U23" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="V23" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="W23" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z23">
+        <v>89</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z23" s="4">
         <v>1</v>
       </c>
-      <c r="AA23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AA23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>1023</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>158</v>
+      <c r="B24" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3350,88 +3550,88 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="M24" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N24" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="S24" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="U24" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="V24" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="W24" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="X24" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z24">
+        <v>89</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z24" s="4">
         <v>1</v>
       </c>
-      <c r="AA24" t="s">
-        <v>107</v>
+      <c r="AA24" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="AB24">
         <v>1</v>
       </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>3001</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>168</v>
+      <c r="B25" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3440,52 +3640,55 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q25">
         <v>5</v>
       </c>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>3002</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>169</v>
+      <c r="B26" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3494,52 +3697,55 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q26">
         <v>10</v>
       </c>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>3003</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>170</v>
+      <c r="B27" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3548,52 +3754,55 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q27">
         <v>3</v>
       </c>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>3101</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>171</v>
+      <c r="B28" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3602,82 +3811,82 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="Q28">
         <v>3</v>
       </c>
       <c r="R28" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="U28" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="X28" t="s">
         <v>28</v>
       </c>
-      <c r="Y28" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z28">
+      <c r="Y28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z28" s="4">
         <v>2</v>
       </c>
-      <c r="AA28" t="s">
-        <v>130</v>
+      <c r="AA28" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>3102</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>172</v>
+      <c r="B29" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3686,52 +3895,55 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N29" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q29">
         <v>2</v>
       </c>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>3201</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>174</v>
+      <c r="B30" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3740,25 +3952,25 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N30" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P30" t="s">
         <v>22</v>
@@ -3772,7 +3984,7 @@
       <c r="S30" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="U30" t="s">
@@ -3781,39 +3993,39 @@
       <c r="V30" t="s">
         <v>18</v>
       </c>
-      <c r="W30" s="5"/>
+      <c r="W30" s="4"/>
       <c r="X30" t="s">
         <v>28</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Y30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z30" s="4">
         <v>1</v>
       </c>
       <c r="AA30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>3202</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>175</v>
+      <c r="B31" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3822,25 +4034,25 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P31" t="s">
         <v>22</v>
@@ -3851,50 +4063,51 @@
       <c r="R31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U31" t="s">
-        <v>18</v>
-      </c>
-      <c r="V31" t="s">
-        <v>18</v>
-      </c>
-      <c r="X31" t="s">
+      <c r="U31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="4">
         <v>1</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>3203</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>177</v>
+      <c r="B32" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3906,49 +4119,49 @@
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="I32" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N32" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P32" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Q32" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>3301</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>181</v>
+      <c r="B33" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3962,16 +4175,16 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
@@ -3984,52 +4197,52 @@
         <v>25</v>
       </c>
       <c r="S33" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="T33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s">
         <v>18</v>
       </c>
       <c r="V33" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="X33" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z33">
         <v>3</v>
       </c>
       <c r="AA33" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="AB33">
         <v>3</v>
       </c>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>3302</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>185</v>
+      <c r="B34" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4038,25 +4251,25 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N34" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
         <v>20</v>
@@ -4070,13 +4283,13 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="V34" t="s">
         <v>20</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>188</v>
+      <c r="W34" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -4085,26 +4298,26 @@
       <c r="AB34">
         <v>2</v>
       </c>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>3303</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>189</v>
+      <c r="B35" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4113,25 +4326,25 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N35" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s">
         <v>20</v>
@@ -4143,55 +4356,55 @@
         <v>25</v>
       </c>
       <c r="S35" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="T35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="V35" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="1" t="s">
-        <v>191</v>
+      <c r="W35" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="X35" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>60</v>
+        <v>159</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="Z35">
         <v>3</v>
       </c>
       <c r="AA35" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="AB35">
         <v>3</v>
       </c>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>3401</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>192</v>
+      <c r="B36" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4209,13 +4422,13 @@
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>195</v>
+      <c r="L36" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="M36" t="s">
         <v>18</v>
@@ -4239,13 +4452,13 @@
         <v>18</v>
       </c>
       <c r="U36" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="V36" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>196</v>
+      <c r="W36" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="X36" t="s">
         <v>18</v>
@@ -4259,26 +4472,26 @@
       <c r="AB36">
         <v>10</v>
       </c>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>3402</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>197</v>
+      <c r="B37" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4290,25 +4503,25 @@
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>195</v>
+      <c r="L37" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="M37" t="s">
         <v>18</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>60</v>
+      <c r="N37" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -4323,25 +4536,25 @@
         <v>25</v>
       </c>
       <c r="S37" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="T37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U37" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="V37" t="s">
         <v>20</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>196</v>
+      <c r="W37" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="X37" t="s">
         <v>18</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>60</v>
+      <c r="Y37" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="Z37">
         <v>3</v>
@@ -4352,26 +4565,26 @@
       <c r="AB37">
         <v>5</v>
       </c>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>3501</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>198</v>
+      <c r="B38" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4383,10 +4596,10 @@
         <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
@@ -4394,42 +4607,42 @@
       <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="L38" s="4"/>
       <c r="M38" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>199</v>
+      <c r="N38" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="O38">
         <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q38">
         <v>10</v>
       </c>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39">
         <v>3502</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>200</v>
+      <c r="B39" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4438,25 +4651,25 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
         <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M39" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N39" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P39" t="s">
         <v>22</v>
@@ -4464,126 +4677,121 @@
       <c r="Q39">
         <v>5</v>
       </c>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+    </row>
+    <row r="40" spans="1:41" s="1" customFormat="1">
+      <c r="A40" s="1">
         <v>3601</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="G40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" t="s">
-        <v>70</v>
-      </c>
-      <c r="K40" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" t="s">
-        <v>70</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="I40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="1">
         <v>1</v>
       </c>
-      <c r="R40" t="s">
-        <v>70</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="R40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T40" t="s">
-        <v>70</v>
-      </c>
-      <c r="U40" t="s">
-        <v>70</v>
-      </c>
-      <c r="V40" t="s">
-        <v>70</v>
-      </c>
-      <c r="X40" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK40">
+      <c r="T40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK40" s="1">
         <v>1</v>
       </c>
-      <c r="AL40" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM40" s="5">
+      <c r="AL40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM40" s="1">
         <v>2</v>
       </c>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41">
         <v>3602</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>202</v>
+      <c r="B41" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4595,79 +4803,79 @@
         <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L41" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="M41" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S41" t="s">
         <v>23</v>
       </c>
       <c r="T41" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="U41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="V41" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="X41" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="Y41" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="AA41" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="AB41">
         <v>3</v>
       </c>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42">
         <v>3701</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>210</v>
+      <c r="B42" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4679,49 +4887,49 @@
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O42">
         <v>5</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43">
         <v>3801</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>212</v>
+      <c r="B43" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4737,37 +4945,37 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="M43" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="O43">
         <v>99</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44">
         <v>3802</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>214</v>
+      <c r="B44" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4776,25 +4984,25 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H44" t="s">
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P44" t="s">
         <v>22</v>
@@ -4803,52 +5011,52 @@
         <v>10</v>
       </c>
       <c r="R44" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="S44" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="T44" t="s">
         <v>18</v>
       </c>
       <c r="U44" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="V44" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="X44" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="Y44" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AA44" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="AB44" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45">
         <v>3901</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>217</v>
+      <c r="B45" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4857,52 +5065,52 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H45" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J45" t="s">
         <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M45" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="N45" t="s">
         <v>29</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46">
         <v>3902</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>218</v>
+      <c r="B46" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4911,52 +5119,52 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J46" t="s">
         <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M46" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="N46" t="s">
         <v>29</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47">
         <v>3903</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>221</v>
+      <c r="B47" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4965,25 +5173,25 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H47" t="s">
         <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P47" t="s">
         <v>22</v>
@@ -5018,26 +5226,26 @@
       <c r="AA47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48">
         <v>3904</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>223</v>
+      <c r="B48" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5046,522 +5254,523 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J48" t="s">
         <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M48" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="N48" t="s">
         <v>29</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="R48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S48" t="s">
         <v>23</v>
       </c>
       <c r="T48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="U48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="V48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="X48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Y48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AA48" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="AB48">
         <v>15</v>
       </c>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-    </row>
-    <row r="49" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-    </row>
-    <row r="50" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-    </row>
-    <row r="51" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-    </row>
-    <row r="52" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-    </row>
-    <row r="53" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-    </row>
-    <row r="54" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-    </row>
-    <row r="55" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-    </row>
-    <row r="56" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-    </row>
-    <row r="57" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-    </row>
-    <row r="58" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
-      <c r="AM58" s="5"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="5"/>
-    </row>
-    <row r="59" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-      <c r="AH59" s="5"/>
-      <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AK59" s="5"/>
-      <c r="AL59" s="5"/>
-      <c r="AM59" s="5"/>
-      <c r="AN59" s="5"/>
-      <c r="AO59" s="5"/>
-    </row>
-    <row r="60" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-    </row>
-    <row r="61" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
-      <c r="AH61" s="5"/>
-      <c r="AI61" s="5"/>
-      <c r="AJ61" s="5"/>
-      <c r="AK61" s="5"/>
-      <c r="AL61" s="5"/>
-      <c r="AM61" s="5"/>
-      <c r="AN61" s="5"/>
-      <c r="AO61" s="5"/>
-    </row>
-    <row r="62" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="5"/>
-    </row>
-    <row r="63" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-      <c r="AF63" s="5"/>
-      <c r="AG63" s="5"/>
-      <c r="AH63" s="5"/>
-      <c r="AI63" s="5"/>
-      <c r="AJ63" s="5"/>
-      <c r="AK63" s="5"/>
-      <c r="AL63" s="5"/>
-      <c r="AM63" s="5"/>
-      <c r="AN63" s="5"/>
-      <c r="AO63" s="5"/>
-    </row>
-    <row r="64" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="5"/>
-    </row>
-    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-      <c r="AH65" s="5"/>
-      <c r="AI65" s="5"/>
-      <c r="AJ65" s="5"/>
-      <c r="AK65" s="5"/>
-      <c r="AL65" s="5"/>
-      <c r="AM65" s="5"/>
-      <c r="AN65" s="5"/>
-      <c r="AO65" s="5"/>
-    </row>
-    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-      <c r="AM66" s="5"/>
-      <c r="AN66" s="5"/>
-      <c r="AO66" s="5"/>
-    </row>
-    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="5"/>
-      <c r="AH67" s="5"/>
-      <c r="AI67" s="5"/>
-      <c r="AJ67" s="5"/>
-      <c r="AK67" s="5"/>
-      <c r="AL67" s="5"/>
-      <c r="AM67" s="5"/>
-      <c r="AN67" s="5"/>
-      <c r="AO67" s="5"/>
-    </row>
-    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="5"/>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="5"/>
-      <c r="AL68" s="5"/>
-      <c r="AM68" s="5"/>
-      <c r="AN68" s="5"/>
-      <c r="AO68" s="5"/>
-    </row>
-    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="5"/>
-      <c r="AI69" s="5"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="5"/>
-      <c r="AL69" s="5"/>
-      <c r="AM69" s="5"/>
-      <c r="AN69" s="5"/>
-      <c r="AO69" s="5"/>
-    </row>
-    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="5"/>
-      <c r="AH70" s="5"/>
-      <c r="AI70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="5"/>
-      <c r="AL70" s="5"/>
-      <c r="AM70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="5"/>
-    </row>
-    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="5"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="5"/>
-      <c r="AL71" s="5"/>
-      <c r="AM71" s="5"/>
-      <c r="AN71" s="5"/>
-      <c r="AO71" s="5"/>
-    </row>
-    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="5"/>
-      <c r="AI72" s="5"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
-    </row>
-    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-      <c r="AH73" s="5"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-    </row>
-    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-      <c r="AF74" s="5"/>
-      <c r="AG74" s="5"/>
-      <c r="AH74" s="5"/>
-      <c r="AI74" s="5"/>
-      <c r="AJ74" s="5"/>
-      <c r="AK74" s="5"/>
-      <c r="AL74" s="5"/>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="5"/>
-      <c r="AO74" s="5"/>
-    </row>
-    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-      <c r="AH75" s="5"/>
-      <c r="AI75" s="5"/>
-      <c r="AJ75" s="5"/>
-      <c r="AK75" s="5"/>
-      <c r="AL75" s="5"/>
-      <c r="AM75" s="5"/>
-      <c r="AN75" s="5"/>
-      <c r="AO75" s="5"/>
-    </row>
-    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="5"/>
-      <c r="AO76" s="5"/>
-    </row>
-    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
-    </row>
-    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+    </row>
+    <row r="49" spans="2:41">
+      <c r="B49" s="11"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+    </row>
+    <row r="50" spans="2:41">
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+    </row>
+    <row r="51" spans="2:41">
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+    </row>
+    <row r="52" spans="2:41">
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+    </row>
+    <row r="53" spans="2:41">
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+    </row>
+    <row r="54" spans="2:41">
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+    </row>
+    <row r="55" spans="2:41">
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
+      <c r="AO55" s="4"/>
+    </row>
+    <row r="56" spans="2:41">
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+    </row>
+    <row r="57" spans="2:41">
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
+    </row>
+    <row r="58" spans="2:41">
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+    </row>
+    <row r="59" spans="2:41">
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+    </row>
+    <row r="60" spans="2:41">
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
+    </row>
+    <row r="61" spans="2:41">
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+    </row>
+    <row r="62" spans="2:41">
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+    </row>
+    <row r="63" spans="2:41">
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+    </row>
+    <row r="64" spans="2:41">
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+    </row>
+    <row r="65" spans="29:41">
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+    </row>
+    <row r="66" spans="29:41">
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+    </row>
+    <row r="67" spans="29:41">
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+      <c r="AL67" s="4"/>
+      <c r="AM67" s="4"/>
+      <c r="AN67" s="4"/>
+      <c r="AO67" s="4"/>
+    </row>
+    <row r="68" spans="29:41">
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+    </row>
+    <row r="69" spans="29:41">
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
+    </row>
+    <row r="70" spans="29:41">
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+    </row>
+    <row r="71" spans="29:41">
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="4"/>
+      <c r="AI71" s="4"/>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="4"/>
+    </row>
+    <row r="72" spans="29:41">
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="4"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
+      <c r="AM72" s="4"/>
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="4"/>
+    </row>
+    <row r="73" spans="29:41">
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+    </row>
+    <row r="74" spans="29:41">
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+      <c r="AL74" s="4"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
+    </row>
+    <row r="75" spans="29:41">
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="4"/>
+      <c r="AO75" s="4"/>
+    </row>
+    <row r="76" spans="29:41">
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+    </row>
+    <row r="77" spans="29:41">
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+    </row>
+    <row r="78" spans="29:41">
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5577,15 +5786,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>表格說明!$C$2:$C$12</xm:f>
+            <xm:f>表格說明!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G28:G29 R28:R29 AC28:AC29</xm:sqref>
+          <xm:sqref>G28:G29 AC28:AC29 R28:R29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>表格說明!$N$2:$N$12</xm:f>
+            <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:N2 N4:N14 N16:N28 Y36:Y37 AJ36:AJ37 Y40 N30:N40 N42:N1048576 Y48</xm:sqref>
+          <xm:sqref>N1:N2 Y48 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 N16:N28 N4:N14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -5595,27 +5804,27 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
-            <xm:f>表格說明!$C$2:$C$14</xm:f>
+            <xm:f>表格說明!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R27 G2:G27 G30:G31 R30:R31 G34:G35 G39:G40 AC2:AC27 AC30:AC31 R40:R41 AC40 G44 G47 R47:R48</xm:sqref>
+          <xm:sqref>R2:R27 R47:R48 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 G30:G31 G2:G27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
-            <xm:f>表格說明!$H$2:$H$20</xm:f>
+            <xm:f>表格說明!$H$2:$H$21</xm:f>
           </x14:formula1>
-          <xm:sqref>M29 AE1:AE94 I1:I1048576 T1:T40 T42:T1048576</xm:sqref>
+          <xm:sqref>M29 T42:T1048576 T1:T40 I1:I1048576 AE1:AE94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
-            <xm:f>表格說明!$P$2:$P$13</xm:f>
+            <xm:f>表格說明!$P$2:$P$14</xm:f>
           </x14:formula1>
-          <xm:sqref>O29 AG1:AG94 U41 V1:V40 K1:K1048576 V42:V1048576</xm:sqref>
+          <xm:sqref>O29 V42:V1048576 K1:K1048576 V1:V40 U41 AG1:AG94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
-            <xm:f>表格說明!$N$2:$N$13</xm:f>
+            <xm:f>表格說明!$N$2:$N$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Y1:Y35 N41 AJ1:AJ35 Y38:Y39 AJ38:AJ94 Y41:Y47 Y49:Y1048576</xm:sqref>
+          <xm:sqref>Y1:Y35 Y49:Y1048576 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 N41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
@@ -5625,9 +5834,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
-            <xm:f>表格說明!$M$2:$M$22</xm:f>
+            <xm:f>表格說明!$M$2:$M$23</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M28 AI1:AI94 M30:M1048576 X1:X1048576</xm:sqref>
+          <xm:sqref>M1:M28 X1:X1048576 M30:M1048576 AI1:AI94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
@@ -5643,19 +5852,19 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
-            <xm:f>表格說明!$J$2:$J$16</xm:f>
+            <xm:f>表格說明!$J$2:$J$17</xm:f>
           </x14:formula1>
-          <xm:sqref>T41 AF1:AF94 U1:U40 J1:J1048576 U42:U1048576 N29</xm:sqref>
+          <xm:sqref>T41 N29 U42:U1048576 J1:J1048576 U1:U40 AF1:AF94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$30</xm:f>
+            <xm:f>表格說明!$E$2:$E$31</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H1048576 S1:S1048576 AD1:AD94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$24</xm:f>
+            <xm:f>表格說明!$E$2:$E$38</xm:f>
           </x14:formula1>
           <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
         </x14:dataValidation>
@@ -5667,380 +5876,424 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" customWidth="1"/>
-    <col min="23" max="23" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9" style="22"/>
+    <col min="23" max="23" width="5.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="22"/>
+    <col min="25" max="29" width="7.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="C2" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="E2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="C3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="E3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="I3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="R2" t="s">
+      <c r="J3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="P3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E4" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="C5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="E6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="E7" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="E8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="E9" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="M9" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="E10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="M10" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="E12" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="E13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="F13" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="E14" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F14" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="E16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="F17" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="F18" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="F19" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="F20" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="49.5">
+      <c r="E24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="21" t="s">
-        <v>239</v>
+      <c r="F25" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6048,11 +6301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C186E0B-6A53-4A8A-9F83-18DF1AC6DC87}">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="14" max="14" width="14.125" customWidth="1"/>
@@ -6061,7 +6314,7 @@
     <col min="28" max="28" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6180,875 +6433,875 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:39" s="4" customFormat="1">
+      <c r="A2" s="4">
         <v>2001</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="H2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="4">
         <v>4</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="U2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:39" s="4" customFormat="1">
+      <c r="A3" s="4">
         <v>2002</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="H3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="4">
         <v>4</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="5" t="s">
+      <c r="U3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="5" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:39" s="4" customFormat="1">
+      <c r="A4" s="4">
         <v>2003</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="H4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="4">
         <v>4</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="S4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="5" t="s">
+      <c r="U4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="5" t="s">
+      <c r="Y4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" spans="1:39" s="4" customFormat="1">
+      <c r="B5" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="6" spans="1:39" s="4" customFormat="1">
+      <c r="B6" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="7" spans="1:39" s="4" customFormat="1">
+      <c r="B7" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-    </row>
-    <row r="23" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-    </row>
-    <row r="25" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-    </row>
-    <row r="29" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-    </row>
-    <row r="31" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-    </row>
-    <row r="32" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-    </row>
-    <row r="33" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-    </row>
-    <row r="34" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-    </row>
-    <row r="35" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-    </row>
-    <row r="36" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-    </row>
-    <row r="37" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-    </row>
-    <row r="39" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-    </row>
-    <row r="40" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-    </row>
-    <row r="41" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-    </row>
-    <row r="42" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-    </row>
-    <row r="43" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-    </row>
-    <row r="45" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-    </row>
-    <row r="47" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-    </row>
-    <row r="48" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-    </row>
-    <row r="49" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-    </row>
-    <row r="50" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-    </row>
-    <row r="51" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-    </row>
-    <row r="52" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-    </row>
-    <row r="53" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-    </row>
-    <row r="54" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-    </row>
-    <row r="55" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-    </row>
-    <row r="56" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-    </row>
-    <row r="57" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-    </row>
-    <row r="58" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
-      <c r="AM58" s="5"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="5"/>
-    </row>
-    <row r="59" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-      <c r="AH59" s="5"/>
-      <c r="AI59" s="5"/>
-      <c r="AJ59" s="5"/>
-      <c r="AK59" s="5"/>
-      <c r="AL59" s="5"/>
-      <c r="AM59" s="5"/>
-      <c r="AN59" s="5"/>
-      <c r="AO59" s="5"/>
-    </row>
-    <row r="60" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-    </row>
-    <row r="61" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
-      <c r="AH61" s="5"/>
-      <c r="AI61" s="5"/>
-      <c r="AJ61" s="5"/>
-      <c r="AK61" s="5"/>
-      <c r="AL61" s="5"/>
-      <c r="AM61" s="5"/>
-      <c r="AN61" s="5"/>
-      <c r="AO61" s="5"/>
-    </row>
-    <row r="62" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="5"/>
-    </row>
-    <row r="63" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-      <c r="AF63" s="5"/>
-      <c r="AG63" s="5"/>
-      <c r="AH63" s="5"/>
-      <c r="AI63" s="5"/>
-      <c r="AJ63" s="5"/>
-      <c r="AK63" s="5"/>
-      <c r="AL63" s="5"/>
-      <c r="AM63" s="5"/>
-      <c r="AN63" s="5"/>
-      <c r="AO63" s="5"/>
-    </row>
-    <row r="64" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="5"/>
-    </row>
-    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-      <c r="AH65" s="5"/>
-      <c r="AI65" s="5"/>
-      <c r="AJ65" s="5"/>
-      <c r="AK65" s="5"/>
-      <c r="AL65" s="5"/>
-      <c r="AM65" s="5"/>
-      <c r="AN65" s="5"/>
-      <c r="AO65" s="5"/>
-    </row>
-    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-      <c r="AM66" s="5"/>
-      <c r="AN66" s="5"/>
-      <c r="AO66" s="5"/>
-    </row>
-    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="5"/>
-      <c r="AH67" s="5"/>
-      <c r="AI67" s="5"/>
-      <c r="AJ67" s="5"/>
-      <c r="AK67" s="5"/>
-      <c r="AL67" s="5"/>
-      <c r="AM67" s="5"/>
-      <c r="AN67" s="5"/>
-      <c r="AO67" s="5"/>
-    </row>
-    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="5"/>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="5"/>
-      <c r="AL68" s="5"/>
-      <c r="AM68" s="5"/>
-      <c r="AN68" s="5"/>
-      <c r="AO68" s="5"/>
-    </row>
-    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="5"/>
-      <c r="AI69" s="5"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="5"/>
-      <c r="AL69" s="5"/>
-      <c r="AM69" s="5"/>
-      <c r="AN69" s="5"/>
-      <c r="AO69" s="5"/>
-    </row>
-    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="5"/>
-      <c r="AH70" s="5"/>
-      <c r="AI70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="5"/>
-      <c r="AL70" s="5"/>
-      <c r="AM70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="5"/>
-    </row>
-    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="5"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="5"/>
-      <c r="AL71" s="5"/>
-      <c r="AM71" s="5"/>
-      <c r="AN71" s="5"/>
-      <c r="AO71" s="5"/>
-    </row>
-    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="5"/>
-      <c r="AI72" s="5"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
-    </row>
-    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-      <c r="AH73" s="5"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-    </row>
-    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-      <c r="AF74" s="5"/>
-      <c r="AG74" s="5"/>
-      <c r="AH74" s="5"/>
-      <c r="AI74" s="5"/>
-      <c r="AJ74" s="5"/>
-      <c r="AK74" s="5"/>
-      <c r="AL74" s="5"/>
-      <c r="AM74" s="5"/>
-      <c r="AN74" s="5"/>
-      <c r="AO74" s="5"/>
-    </row>
-    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-      <c r="AH75" s="5"/>
-      <c r="AI75" s="5"/>
-      <c r="AJ75" s="5"/>
-      <c r="AK75" s="5"/>
-      <c r="AL75" s="5"/>
-      <c r="AM75" s="5"/>
-      <c r="AN75" s="5"/>
-      <c r="AO75" s="5"/>
-    </row>
-    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="5"/>
-      <c r="AO76" s="5"/>
-    </row>
-    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
-    </row>
-    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="4" customFormat="1">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:39" s="4" customFormat="1">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:39" s="4" customFormat="1">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:39" s="4" customFormat="1">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:39" s="4" customFormat="1">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:39" s="4" customFormat="1">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:39" s="4" customFormat="1">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:39" s="4" customFormat="1">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:39" s="4" customFormat="1">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" s="4" customFormat="1">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="2:2" s="4" customFormat="1">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="2:2" s="4" customFormat="1">
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="2:2" s="4" customFormat="1">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="2:2" s="4" customFormat="1">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="2:2" s="4" customFormat="1">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="2:2" s="4" customFormat="1">
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" spans="2:2" s="4" customFormat="1">
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="2:2" s="4" customFormat="1">
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="2:2" s="4" customFormat="1">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="2:2" s="4" customFormat="1">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="2:2" s="4" customFormat="1">
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="2:2" s="4" customFormat="1">
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="2:2" s="4" customFormat="1">
+      <c r="B30" s="18"/>
+    </row>
+    <row r="31" spans="2:2" s="4" customFormat="1">
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="2:2" s="4" customFormat="1">
+      <c r="B32" s="18"/>
+    </row>
+    <row r="33" spans="2:2" s="4" customFormat="1">
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="2:2" s="4" customFormat="1">
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="2:2" s="4" customFormat="1">
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" spans="2:2" s="4" customFormat="1">
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="2:2" s="4" customFormat="1">
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="2:2" s="4" customFormat="1">
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="2:2" s="4" customFormat="1">
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="2:2" s="4" customFormat="1">
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="2:2" s="4" customFormat="1">
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="2:2" s="4" customFormat="1">
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="2:2" s="4" customFormat="1">
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="2:2" s="4" customFormat="1">
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="2:2" s="4" customFormat="1">
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="2:2" s="4" customFormat="1">
+      <c r="B46" s="18"/>
+    </row>
+    <row r="47" spans="2:2" s="4" customFormat="1">
+      <c r="B47" s="18"/>
+    </row>
+    <row r="48" spans="2:2" s="4" customFormat="1">
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="29:41">
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+    </row>
+    <row r="50" spans="29:41">
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+    </row>
+    <row r="51" spans="29:41">
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+    </row>
+    <row r="52" spans="29:41">
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+    </row>
+    <row r="53" spans="29:41">
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+    </row>
+    <row r="54" spans="29:41">
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+    </row>
+    <row r="55" spans="29:41">
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
+      <c r="AO55" s="4"/>
+    </row>
+    <row r="56" spans="29:41">
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+    </row>
+    <row r="57" spans="29:41">
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
+    </row>
+    <row r="58" spans="29:41">
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+    </row>
+    <row r="59" spans="29:41">
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+    </row>
+    <row r="60" spans="29:41">
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
+    </row>
+    <row r="61" spans="29:41">
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+    </row>
+    <row r="62" spans="29:41">
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+    </row>
+    <row r="63" spans="29:41">
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+    </row>
+    <row r="64" spans="29:41">
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+    </row>
+    <row r="65" spans="29:41">
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+    </row>
+    <row r="66" spans="29:41">
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+    </row>
+    <row r="67" spans="29:41">
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+      <c r="AL67" s="4"/>
+      <c r="AM67" s="4"/>
+      <c r="AN67" s="4"/>
+      <c r="AO67" s="4"/>
+    </row>
+    <row r="68" spans="29:41">
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+    </row>
+    <row r="69" spans="29:41">
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
+    </row>
+    <row r="70" spans="29:41">
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+    </row>
+    <row r="71" spans="29:41">
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="4"/>
+      <c r="AI71" s="4"/>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="4"/>
+    </row>
+    <row r="72" spans="29:41">
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="4"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
+      <c r="AM72" s="4"/>
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="4"/>
+    </row>
+    <row r="73" spans="29:41">
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+    </row>
+    <row r="74" spans="29:41">
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+      <c r="AL74" s="4"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
+    </row>
+    <row r="75" spans="29:41">
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="4"/>
+      <c r="AO75" s="4"/>
+    </row>
+    <row r="76" spans="29:41">
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+    </row>
+    <row r="77" spans="29:41">
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+    </row>
+    <row r="78" spans="29:41">
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7064,9 +7317,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{264F00E7-8951-4B72-B25F-0B3C853F7A6B}">
           <x14:formula1>
-            <xm:f>表格說明!$J$2:$J$16</xm:f>
+            <xm:f>表格說明!$J$2:$J$17</xm:f>
           </x14:formula1>
-          <xm:sqref>T41 AF1:AF94 N29 U42:U1048576 U1:U40 J1:J1048576</xm:sqref>
+          <xm:sqref>T41 J1:J1048576 U1:U40 U42:U1048576 N29 AF1:AF94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD1E01D5-80D6-4241-AB6F-B1E7317E0303}">
           <x14:formula1>
@@ -7082,9 +7335,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A596839B-2A67-4613-BF31-0FCADEF8C2AB}">
           <x14:formula1>
-            <xm:f>表格說明!$M$2:$M$22</xm:f>
+            <xm:f>表格說明!$M$2:$M$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AI1:AI94 M30:M1048576 X1:X1048576 M1:M28</xm:sqref>
+          <xm:sqref>AI1:AI94 M1:M28 X1:X1048576 M30:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E4865F5-AF27-4E39-9594-FEC867BD1095}">
           <x14:formula1>
@@ -7094,27 +7347,27 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E56FAA30-68AB-451C-88A9-BF60887009E2}">
           <x14:formula1>
-            <xm:f>表格說明!$N$2:$N$13</xm:f>
+            <xm:f>表格說明!$N$2:$N$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Y49:Y1048576 N41 AJ1:AJ35 Y38:Y39 AJ38:AJ94 Y41:Y47 Y1:Y35</xm:sqref>
+          <xm:sqref>Y49:Y1048576 Y1:Y35 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 N41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D157B7C-CFE3-4AA3-BC45-1FF17AA76DD2}">
           <x14:formula1>
-            <xm:f>表格說明!$P$2:$P$13</xm:f>
+            <xm:f>表格說明!$P$2:$P$14</xm:f>
           </x14:formula1>
-          <xm:sqref>O29 AG1:AG94 U41 V42:V1048576 V1:V40 K1:K1048576</xm:sqref>
+          <xm:sqref>O29 K1:K1048576 V1:V40 V42:V1048576 U41 AG1:AG94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{033BAF42-D5D1-4FB9-BD04-3C5A621B9A8C}">
           <x14:formula1>
-            <xm:f>表格說明!$H$2:$H$20</xm:f>
+            <xm:f>表格說明!$H$2:$H$21</xm:f>
           </x14:formula1>
-          <xm:sqref>M29 AE1:AE94 T42:T1048576 T1:T40 I1:I1048576</xm:sqref>
+          <xm:sqref>M29 I1:I1048576 T1:T40 T42:T1048576 AE1:AE94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE7CEB8E-BDA6-493E-B289-8E10ED0C6653}">
           <x14:formula1>
-            <xm:f>表格說明!$C$2:$C$14</xm:f>
+            <xm:f>表格說明!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>R47:R48 G30:G31 R30:R31 G34:G35 G39:G40 AC2:AC27 AC30:AC31 R40:R41 AC40 G44 G47 R2:R27 G2:G27</xm:sqref>
+          <xm:sqref>R47:R48 G2:G27 R2:R27 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 G30:G31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FC9CDF8-56EC-411D-BEFC-769DF5100322}">
           <x14:formula1>
@@ -7124,27 +7377,27 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B579E5EC-2C33-4B01-B21E-C67C6599AED8}">
           <x14:formula1>
-            <xm:f>表格說明!$N$2:$N$12</xm:f>
+            <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
-          <xm:sqref>Y48 N16:N28 Y36:Y37 AJ36:AJ37 Y40 N30:N40 N42:N1048576 N1:N14</xm:sqref>
+          <xm:sqref>Y48 N1:N14 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 N16:N28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4EFBF862-8763-4F36-9B0B-2B27EDB26BD8}">
           <x14:formula1>
-            <xm:f>表格說明!$C$2:$C$12</xm:f>
+            <xm:f>表格說明!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G28:G29 R28:R29 AC28:AC29</xm:sqref>
+          <xm:sqref>G28:G29 AC28:AC29 R28:R29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BBCEEC3-259A-4FDF-957D-A020DC3882FF}">
+          <x14:formula1>
+            <xm:f>表格說明!$E$2:$E$31</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD1:AD94 S1:S1048576 H1:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57BA1C28-27F3-4BBF-9087-1CA8ACADA50B}">
           <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$24</xm:f>
+            <xm:f>表格說明!$E$2:$E$38</xm:f>
           </x14:formula1>
           <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BBCEEC3-259A-4FDF-957D-A020DC3882FF}">
-          <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$30</xm:f>
-          </x14:formula1>
-          <xm:sqref>AD1:AD94 S1:S1048576 H1:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -1710,10 +1710,10 @@
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>156</v>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>156</v>
@@ -4951,6 +4951,9 @@
       </c>
       <c r="K43" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
       </c>
       <c r="M43" t="s">
         <v>181</v>

--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koway\Documents\GitHub\Coins-data\Coins-data\企劃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Coins-data\企劃\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4E4E18-8813-4653-A99A-656C42608C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="4" r:id="rId1"/>
@@ -21,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="264">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1136,12 +1128,87 @@
     <t>一般攻擊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>魔法傷害</t>
+  </si>
+  <si>
+    <t>魔法傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成魔法傷害，-1為雙倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箭術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒彈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力侵蝕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰風暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火舌纏繞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力環境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎爆術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔轉血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法術抄寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒纏之觸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超量施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1294,6 +1361,40 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1317,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,19 +1452,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1392,6 +1481,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1706,46 +1813,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10:AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="17.399999999999999">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1915,7 +2022,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
     </row>
-    <row r="3" spans="1:41" ht="17.399999999999999">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1969,7 +2076,7 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2050,7 +2157,7 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2131,7 +2238,7 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2212,7 +2319,7 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2266,7 +2373,7 @@
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2350,7 +2457,7 @@
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2434,7 +2541,7 @@
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2518,7 +2625,7 @@
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -2603,7 +2710,7 @@
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -2687,7 +2794,7 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -2748,7 +2855,7 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -2809,7 +2916,7 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -2866,7 +2973,7 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -2948,7 +3055,7 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -3005,7 +3112,7 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -3090,7 +3197,7 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -3177,7 +3284,7 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -3261,7 +3368,7 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -3343,7 +3450,7 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -3425,7 +3532,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -3518,7 +3625,7 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -3608,7 +3715,7 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3001</v>
       </c>
@@ -3665,7 +3772,7 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3002</v>
       </c>
@@ -3722,7 +3829,7 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3003</v>
       </c>
@@ -3779,7 +3886,7 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3101</v>
       </c>
@@ -3863,7 +3970,7 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3102</v>
       </c>
@@ -3920,7 +4027,7 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3201</v>
       </c>
@@ -4002,7 +4109,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3202</v>
       </c>
@@ -4084,7 +4191,7 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3203</v>
       </c>
@@ -4138,7 +4245,7 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3301</v>
       </c>
@@ -4224,7 +4331,7 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3302</v>
       </c>
@@ -4309,7 +4416,7 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3303</v>
       </c>
@@ -4396,7 +4503,7 @@
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3401</v>
       </c>
@@ -4483,7 +4590,7 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3402</v>
       </c>
@@ -4576,7 +4683,7 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3501</v>
       </c>
@@ -4634,7 +4741,7 @@
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3502</v>
       </c>
@@ -4688,11 +4795,11 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
     </row>
-    <row r="40" spans="1:41" s="2" customFormat="1">
+    <row r="40" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>3601</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="2">
@@ -4786,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3602</v>
       </c>
@@ -4870,7 +4977,7 @@
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3701</v>
       </c>
@@ -4924,7 +5031,7 @@
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3801</v>
       </c>
@@ -4981,7 +5088,7 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3802</v>
       </c>
@@ -5062,7 +5169,7 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3901</v>
       </c>
@@ -5116,7 +5223,7 @@
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3902</v>
       </c>
@@ -5170,7 +5277,7 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3903</v>
       </c>
@@ -5251,7 +5358,7 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3904</v>
       </c>
@@ -5332,7 +5439,7 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
     </row>
-    <row r="49" spans="2:41">
+    <row r="49" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
@@ -5348,7 +5455,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" spans="2:41">
+    <row r="50" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -5363,7 +5470,7 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
     </row>
-    <row r="51" spans="2:41">
+    <row r="51" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -5378,7 +5485,7 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
     </row>
-    <row r="52" spans="2:41">
+    <row r="52" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -5393,7 +5500,7 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
     </row>
-    <row r="53" spans="2:41">
+    <row r="53" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -5408,7 +5515,7 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
     </row>
-    <row r="54" spans="2:41">
+    <row r="54" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -5423,7 +5530,7 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
     </row>
-    <row r="55" spans="2:41">
+    <row r="55" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -5438,7 +5545,7 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
     </row>
-    <row r="56" spans="2:41">
+    <row r="56" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -5453,7 +5560,7 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
     </row>
-    <row r="57" spans="2:41">
+    <row r="57" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -5468,7 +5575,7 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
     </row>
-    <row r="58" spans="2:41">
+    <row r="58" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -5483,7 +5590,7 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
     </row>
-    <row r="59" spans="2:41">
+    <row r="59" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
@@ -5498,7 +5605,7 @@
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
     </row>
-    <row r="60" spans="2:41">
+    <row r="60" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -5513,7 +5620,7 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
     </row>
-    <row r="61" spans="2:41">
+    <row r="61" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -5528,7 +5635,7 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
     </row>
-    <row r="62" spans="2:41">
+    <row r="62" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
@@ -5543,7 +5650,7 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
     </row>
-    <row r="63" spans="2:41">
+    <row r="63" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
@@ -5558,7 +5665,7 @@
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
     </row>
-    <row r="64" spans="2:41">
+    <row r="64" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
@@ -5573,7 +5680,7 @@
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
     </row>
-    <row r="65" spans="29:41">
+    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
@@ -5588,7 +5695,7 @@
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
     </row>
-    <row r="66" spans="29:41">
+    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
@@ -5603,7 +5710,7 @@
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
     </row>
-    <row r="67" spans="29:41">
+    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
@@ -5618,7 +5725,7 @@
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
     </row>
-    <row r="68" spans="29:41">
+    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
@@ -5633,7 +5740,7 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
     </row>
-    <row r="69" spans="29:41">
+    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
@@ -5648,7 +5755,7 @@
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
     </row>
-    <row r="70" spans="29:41">
+    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
@@ -5663,7 +5770,7 @@
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
     </row>
-    <row r="71" spans="29:41">
+    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
@@ -5678,7 +5785,7 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
     </row>
-    <row r="72" spans="29:41">
+    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
@@ -5693,7 +5800,7 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
     </row>
-    <row r="73" spans="29:41">
+    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
@@ -5708,7 +5815,7 @@
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
     </row>
-    <row r="74" spans="29:41">
+    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
@@ -5723,7 +5830,7 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
     </row>
-    <row r="75" spans="29:41">
+    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
@@ -5738,7 +5845,7 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
     </row>
-    <row r="76" spans="29:41">
+    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
@@ -5753,7 +5860,7 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
     </row>
-    <row r="77" spans="29:41">
+    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
@@ -5768,7 +5875,7 @@
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
     </row>
-    <row r="78" spans="29:41">
+    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
@@ -5786,7 +5893,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5795,87 +5902,87 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>G28:G29 AC28:AC29 R28:R29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
           <xm:sqref>N1:N2 Y48 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 N16:N28 N4:N14 AA34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$6</xm:f>
           </x14:formula1>
           <xm:sqref>N3 N15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>R2:R27 R47:R48 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 G30:G31 G2:G27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>表格說明!$H$2:$H$21</xm:f>
           </x14:formula1>
           <xm:sqref>M29 T42:T1048576 T1:T40 I1:I1048576 AE1:AE94</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$14</xm:f>
           </x14:formula1>
           <xm:sqref>O29 V42:V1048576 K1:K1048576 V1:V40 U41 AG1:AG94 X34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$14</xm:f>
           </x14:formula1>
           <xm:sqref>N41 Y49:Y1048576 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 Y1:Y33 Y35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$9</xm:f>
           </x14:formula1>
           <xm:sqref>AL1:AL94 P1:P1048576 AA1:AA33 AA35:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>表格說明!$M$2:$M$23</xm:f>
           </x14:formula1>
           <xm:sqref>M1:M28 AI1:AI94 M30:M1048576 X1:X33 X35:X1048576 Z34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>G32:G33 R34 R36:R37 G36:G38 AC36:AC37 AC34 G41:G43 G45:G46 G48:G71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>R32:R33 R35 AC41:AC51 AC32:AC33 AC35 R38:R39 AC38:AC39 R42:R46 R49:R51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>表格說明!$J$2:$J$17</xm:f>
           </x14:formula1>
           <xm:sqref>T41 N29 U42:U1048576 J1:J1048576 AF1:AF94 U1:U40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$31</xm:f>
+            <xm:f>表格說明!$E$2:$E$32</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576 S1:S1048576 AD1:AD94</xm:sqref>
+          <xm:sqref>H1:H1048576 AD1:AD94 S1:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$38</xm:f>
+            <xm:f>表格說明!$E$2:$E$39</xm:f>
           </x14:formula1>
           <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
         </x14:dataValidation>
@@ -5886,418 +5993,426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="20" customWidth="1"/>
-    <col min="20" max="22" width="9" style="20"/>
-    <col min="23" max="23" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="20"/>
-    <col min="25" max="29" width="7.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="20"/>
+    <col min="1" max="2" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="16" customWidth="1"/>
+    <col min="20" max="22" width="9" style="16"/>
+    <col min="23" max="23" width="5.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="16"/>
+    <col min="25" max="29" width="7.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="C3" s="20" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="C4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="H4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="20">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="C5" s="20" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="E6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="E7" s="20" t="s">
+      <c r="J7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E8" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="J8" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="M9" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="M10" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="E8" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="E9" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="M9" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="E10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="M10" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="E12" s="20" t="s">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="E13" s="21" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="E14" s="20" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="E15" s="20" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="E16" s="20" t="s">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F17" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="20" t="s">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="20" t="s">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F19" s="16" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="19" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F20" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="19" t="s">
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="19" t="s">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="19" t="s">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="19" t="s">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F24" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="5:7" ht="48.6">
-      <c r="E24" s="19" t="s">
+    <row r="25" spans="5:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="E25" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F25" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="20" t="s">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F26" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="19" t="s">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F27" s="16" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6309,23 +6424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" customWidth="1"/>
-    <col min="28" max="28" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6444,11 +6559,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1">
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2001</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>188</v>
       </c>
       <c r="C2" s="2">
@@ -6509,11 +6624,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1">
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2002</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C3" s="2">
@@ -6574,11 +6689,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1">
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2003</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="2">
@@ -6639,8 +6754,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>194</v>
       </c>
       <c r="C5" s="2">
@@ -6677,8 +6795,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>193</v>
       </c>
       <c r="C6" s="2">
@@ -6711,13 +6832,22 @@
       <c r="P6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" s="2" customFormat="1">
-      <c r="B7" s="18" t="s">
+      <c r="Q6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>197</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>17</v>
@@ -6740,131 +6870,875 @@
       <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" s="2" customFormat="1">
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:39" s="2" customFormat="1">
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:39" s="2" customFormat="1">
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:39" s="2" customFormat="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:39" s="2" customFormat="1">
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:39" s="2" customFormat="1">
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:39" s="2" customFormat="1">
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:39" s="2" customFormat="1">
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:39" s="2" customFormat="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="2:2" s="2" customFormat="1">
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="2:2" s="2" customFormat="1">
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="2:2" s="2" customFormat="1">
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="2:2" s="2" customFormat="1">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="2:2" s="2" customFormat="1">
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="2:2" s="2" customFormat="1">
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" spans="2:2" s="2" customFormat="1">
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="2:2" s="2" customFormat="1">
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="2:2" s="2" customFormat="1">
-      <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="2:2" s="2" customFormat="1">
-      <c r="B26" s="16"/>
-    </row>
-    <row r="27" spans="2:2" s="2" customFormat="1">
-      <c r="B27" s="16"/>
-    </row>
-    <row r="28" spans="2:2" s="2" customFormat="1">
-      <c r="B28" s="16"/>
-    </row>
-    <row r="29" spans="2:2" s="2" customFormat="1">
-      <c r="B29" s="16"/>
-    </row>
-    <row r="30" spans="2:2" s="2" customFormat="1">
-      <c r="B30" s="16"/>
-    </row>
-    <row r="31" spans="2:2" s="2" customFormat="1">
-      <c r="B31" s="16"/>
-    </row>
-    <row r="32" spans="2:2" s="2" customFormat="1">
-      <c r="B32" s="16"/>
-    </row>
-    <row r="33" spans="2:2" s="2" customFormat="1">
-      <c r="B33" s="16"/>
-    </row>
-    <row r="34" spans="2:2" s="2" customFormat="1">
-      <c r="B34" s="16"/>
-    </row>
-    <row r="35" spans="2:2" s="2" customFormat="1">
-      <c r="B35" s="16"/>
-    </row>
-    <row r="36" spans="2:2" s="2" customFormat="1">
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="2:2" s="2" customFormat="1">
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="2:2" s="2" customFormat="1">
-      <c r="B38" s="16"/>
-    </row>
-    <row r="39" spans="2:2" s="2" customFormat="1">
-      <c r="B39" s="16"/>
-    </row>
-    <row r="40" spans="2:2" s="2" customFormat="1">
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="2:2" s="2" customFormat="1">
-      <c r="B41" s="16"/>
-    </row>
-    <row r="42" spans="2:2" s="2" customFormat="1">
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="2:2" s="2" customFormat="1">
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="2:2" s="2" customFormat="1">
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="2:2" s="2" customFormat="1">
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="2:2" s="2" customFormat="1">
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="2:2" s="2" customFormat="1">
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="2:2" s="2" customFormat="1">
-      <c r="B48" s="16"/>
-    </row>
-    <row r="49" spans="29:41">
+      <c r="P7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>5</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
@@ -6879,7 +7753,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" spans="29:41">
+    <row r="50" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -6894,7 +7768,7 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
     </row>
-    <row r="51" spans="29:41">
+    <row r="51" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -6909,7 +7783,7 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
     </row>
-    <row r="52" spans="29:41">
+    <row r="52" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -6924,7 +7798,7 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
     </row>
-    <row r="53" spans="29:41">
+    <row r="53" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -6939,7 +7813,7 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
     </row>
-    <row r="54" spans="29:41">
+    <row r="54" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -6954,7 +7828,7 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
     </row>
-    <row r="55" spans="29:41">
+    <row r="55" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -6969,7 +7843,7 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
     </row>
-    <row r="56" spans="29:41">
+    <row r="56" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -6984,7 +7858,7 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
     </row>
-    <row r="57" spans="29:41">
+    <row r="57" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -6999,7 +7873,7 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
     </row>
-    <row r="58" spans="29:41">
+    <row r="58" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -7014,7 +7888,7 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
     </row>
-    <row r="59" spans="29:41">
+    <row r="59" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
@@ -7029,7 +7903,7 @@
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
     </row>
-    <row r="60" spans="29:41">
+    <row r="60" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -7044,7 +7918,7 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
     </row>
-    <row r="61" spans="29:41">
+    <row r="61" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -7059,7 +7933,7 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
     </row>
-    <row r="62" spans="29:41">
+    <row r="62" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
@@ -7074,7 +7948,7 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
     </row>
-    <row r="63" spans="29:41">
+    <row r="63" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
@@ -7089,7 +7963,7 @@
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
     </row>
-    <row r="64" spans="29:41">
+    <row r="64" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
@@ -7104,7 +7978,7 @@
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
     </row>
-    <row r="65" spans="29:41">
+    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
@@ -7119,7 +7993,7 @@
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
     </row>
-    <row r="66" spans="29:41">
+    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
@@ -7134,7 +8008,7 @@
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
     </row>
-    <row r="67" spans="29:41">
+    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
@@ -7149,7 +8023,7 @@
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
     </row>
-    <row r="68" spans="29:41">
+    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
@@ -7164,7 +8038,7 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
     </row>
-    <row r="69" spans="29:41">
+    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
@@ -7179,7 +8053,7 @@
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
     </row>
-    <row r="70" spans="29:41">
+    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
@@ -7194,7 +8068,7 @@
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
     </row>
-    <row r="71" spans="29:41">
+    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
@@ -7209,7 +8083,7 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
     </row>
-    <row r="72" spans="29:41">
+    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
@@ -7224,7 +8098,7 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
     </row>
-    <row r="73" spans="29:41">
+    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
@@ -7239,7 +8113,7 @@
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
     </row>
-    <row r="74" spans="29:41">
+    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
@@ -7254,7 +8128,7 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
     </row>
-    <row r="75" spans="29:41">
+    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
@@ -7269,7 +8143,7 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
     </row>
-    <row r="76" spans="29:41">
+    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
@@ -7284,7 +8158,7 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
     </row>
-    <row r="77" spans="29:41">
+    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
@@ -7299,7 +8173,7 @@
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
     </row>
-    <row r="78" spans="29:41">
+    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
@@ -7317,7 +8191,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7325,88 +8199,82 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>表格說明!$J$2:$J$17</xm:f>
           </x14:formula1>
-          <xm:sqref>T41 J1:J1048576 U1:U40 U42:U1048576 N29 AF1:AF94</xm:sqref>
+          <xm:sqref>T41 AF1:AF94 U42:U1048576 N29 U1:U40 J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>R32:R33 R35 AC41:AC51 AC32:AC33 AC35 R38:R39 AC38:AC39 R42:R46 R49:R51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>G32:G33 R34 R36:R37 G36:G38 AC36:AC37 AC34 G41:G43 G45:G46 G48:G71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>表格說明!$M$2:$M$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AI1:AI94 M1:M28 X1:X1048576 M30:M1048576</xm:sqref>
+          <xm:sqref>AI1:AI94 M30:M1048576 X1:X1048576 M1:M28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$9</xm:f>
           </x14:formula1>
           <xm:sqref>AL1:AL94 AA1:AA1048576 P1:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Y49:Y1048576 Y1:Y35 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 N41</xm:sqref>
+          <xm:sqref>Y49:Y1048576 N41 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 Y1:Y8 Y12:Y14 Y17:Y35 N21:N23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$14</xm:f>
           </x14:formula1>
-          <xm:sqref>O29 K1:K1048576 V1:V40 V42:V1048576 U41 AG1:AG94</xm:sqref>
+          <xm:sqref>O29 AG1:AG94 V42:V1048576 U41 V1:V40 K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000008000000}">
           <x14:formula1>
             <xm:f>表格說明!$H$2:$H$21</xm:f>
           </x14:formula1>
-          <xm:sqref>M29 I1:I1048576 T1:T40 T42:T1048576 AE1:AE94</xm:sqref>
+          <xm:sqref>M29 AE1:AE94 T42:T1048576 T1:T40 I1:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000009000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>R47:R48 G2:G27 R2:R27 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 G30:G31</xm:sqref>
+          <xm:sqref>R47:R48 G30:G31 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 R2:R27 G2:G27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>表格說明!$N$2:$N$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>N15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000B000000}">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
-          <xm:sqref>Y48 N1:N14 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 N16:N28</xm:sqref>
+          <xm:sqref>Y48 Y9:Y11 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 Y15:Y16 N1:N20 N24:N28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000C000000}">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>G28:G29 AC28:AC29 R28:R29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000D000000}">
           <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$31</xm:f>
+            <xm:f>表格說明!$E$2:$E$32</xm:f>
           </x14:formula1>
           <xm:sqref>AD1:AD94 S1:S1048576 H1:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000E000000}">
           <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$38</xm:f>
+            <xm:f>表格說明!$E$2:$E$39</xm:f>
           </x14:formula1>
           <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
         </x14:dataValidation>

--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\Coins-data\企劃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koway\Documents\GitHub\Coins-data\Coins-data\企劃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4E4E18-8813-4653-A99A-656C42608C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="4" r:id="rId1"/>
@@ -1207,7 +1206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1813,46 +1812,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10:AB10"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2022,7 +2021,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2076,7 +2075,7 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2157,7 +2156,7 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2238,7 +2237,7 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2319,7 +2318,7 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2373,7 +2372,7 @@
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2457,7 +2456,7 @@
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2541,7 +2540,7 @@
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2625,7 +2624,7 @@
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -2710,7 +2709,7 @@
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -2794,7 +2793,7 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -2855,7 +2854,7 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -2916,7 +2915,7 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -2973,7 +2972,7 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -3055,7 +3054,7 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -3112,7 +3111,7 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -3197,7 +3196,7 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -3284,7 +3283,7 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -3368,7 +3367,7 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -3450,7 +3449,7 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -3532,7 +3531,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -3625,7 +3624,7 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -3715,7 +3714,7 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3001</v>
       </c>
@@ -3772,7 +3771,7 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3002</v>
       </c>
@@ -3829,7 +3828,7 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3003</v>
       </c>
@@ -3886,7 +3885,7 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3101</v>
       </c>
@@ -3970,7 +3969,7 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3102</v>
       </c>
@@ -4027,7 +4026,7 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3201</v>
       </c>
@@ -4109,7 +4108,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3202</v>
       </c>
@@ -4191,7 +4190,7 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3203</v>
       </c>
@@ -4245,7 +4244,7 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3301</v>
       </c>
@@ -4331,7 +4330,7 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3302</v>
       </c>
@@ -4416,7 +4415,7 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3303</v>
       </c>
@@ -4503,7 +4502,7 @@
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3401</v>
       </c>
@@ -4590,7 +4589,7 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3402</v>
       </c>
@@ -4683,7 +4682,7 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3501</v>
       </c>
@@ -4741,7 +4740,7 @@
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3502</v>
       </c>
@@ -4795,7 +4794,7 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
     </row>
-    <row r="40" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3601</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3602</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3701</v>
       </c>
@@ -5031,7 +5030,7 @@
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3801</v>
       </c>
@@ -5059,9 +5058,6 @@
       <c r="K43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
       <c r="M43" t="s">
         <v>181</v>
       </c>
@@ -5073,6 +5069,9 @@
       </c>
       <c r="P43" t="s">
         <v>173</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
@@ -5088,7 +5087,7 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3802</v>
       </c>
@@ -5169,7 +5168,7 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3901</v>
       </c>
@@ -5223,7 +5222,7 @@
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3902</v>
       </c>
@@ -5277,7 +5276,7 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3903</v>
       </c>
@@ -5358,7 +5357,7 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3904</v>
       </c>
@@ -5439,7 +5438,7 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
     </row>
-    <row r="49" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
@@ -5455,7 +5454,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -5470,7 +5469,7 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
     </row>
-    <row r="51" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -5485,7 +5484,7 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
     </row>
-    <row r="52" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -5500,7 +5499,7 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
     </row>
-    <row r="53" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -5515,7 +5514,7 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
     </row>
-    <row r="54" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -5530,7 +5529,7 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
     </row>
-    <row r="55" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -5545,7 +5544,7 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
     </row>
-    <row r="56" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -5560,7 +5559,7 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
     </row>
-    <row r="57" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -5575,7 +5574,7 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
     </row>
-    <row r="58" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -5590,7 +5589,7 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
     </row>
-    <row r="59" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
@@ -5605,7 +5604,7 @@
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
     </row>
-    <row r="60" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -5620,7 +5619,7 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
     </row>
-    <row r="61" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -5635,7 +5634,7 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
     </row>
-    <row r="62" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
@@ -5650,7 +5649,7 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
     </row>
-    <row r="63" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
@@ -5665,7 +5664,7 @@
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
     </row>
-    <row r="64" spans="2:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:41" x14ac:dyDescent="0.3">
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
@@ -5680,7 +5679,7 @@
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
     </row>
-    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
@@ -5695,7 +5694,7 @@
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
     </row>
-    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
@@ -5710,7 +5709,7 @@
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
     </row>
-    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
@@ -5725,7 +5724,7 @@
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
     </row>
-    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
@@ -5740,7 +5739,7 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
     </row>
-    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
@@ -5755,7 +5754,7 @@
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
     </row>
-    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
@@ -5770,7 +5769,7 @@
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
     </row>
-    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
@@ -5785,7 +5784,7 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
     </row>
-    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
@@ -5800,7 +5799,7 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
     </row>
-    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
@@ -5815,7 +5814,7 @@
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
     </row>
-    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
@@ -5830,7 +5829,7 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
     </row>
-    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
@@ -5845,7 +5844,7 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
     </row>
-    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
@@ -5860,7 +5859,7 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
     </row>
-    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
@@ -5875,7 +5874,7 @@
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
     </row>
-    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
@@ -5893,7 +5892,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5902,85 +5901,85 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>G28:G29 AC28:AC29 R28:R29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
           <xm:sqref>N1:N2 Y48 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 N16:N28 N4:N14 AA34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$6</xm:f>
           </x14:formula1>
           <xm:sqref>N3 N15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>R2:R27 R47:R48 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 G30:G31 G2:G27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$H$2:$H$21</xm:f>
           </x14:formula1>
           <xm:sqref>M29 T42:T1048576 T1:T40 I1:I1048576 AE1:AE94</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$14</xm:f>
           </x14:formula1>
           <xm:sqref>O29 V42:V1048576 K1:K1048576 V1:V40 U41 AG1:AG94 X34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$14</xm:f>
           </x14:formula1>
           <xm:sqref>N41 Y49:Y1048576 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 Y1:Y33 Y35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$9</xm:f>
           </x14:formula1>
           <xm:sqref>AL1:AL94 P1:P1048576 AA1:AA33 AA35:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$M$2:$M$23</xm:f>
           </x14:formula1>
           <xm:sqref>M1:M28 AI1:AI94 M30:M1048576 X1:X33 X35:X1048576 Z34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>G32:G33 R34 R36:R37 G36:G38 AC36:AC37 AC34 G41:G43 G45:G46 G48:G71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>R32:R33 R35 AC41:AC51 AC32:AC33 AC35 R38:R39 AC38:AC39 R42:R46 R49:R51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$J$2:$J$17</xm:f>
           </x14:formula1>
           <xm:sqref>T41 N29 U42:U1048576 J1:J1048576 AF1:AF94 U1:U40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$E$2:$E$32</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H1048576 AD1:AD94 S1:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$E$2:$E$39</xm:f>
           </x14:formula1>
@@ -5993,37 +5992,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" style="16" customWidth="1"/>
+    <col min="1" max="2" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="16" customWidth="1"/>
     <col min="20" max="22" width="9" style="16"/>
-    <col min="23" max="23" width="5.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="16"/>
-    <col min="25" max="29" width="7.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="7.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>41</v>
       </c>
@@ -6114,7 +6113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C3" s="16" t="s">
         <v>51</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>56</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>63</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" s="16" t="s">
         <v>64</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E7" s="16" t="s">
         <v>67</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" s="16" t="s">
         <v>226</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E9" s="16" t="s">
         <v>71</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E10" s="15" t="s">
         <v>204</v>
       </c>
@@ -6286,16 +6285,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" s="16" t="s">
         <v>222</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" s="17" t="s">
         <v>57</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E15" s="16" t="s">
         <v>73</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E16" s="16" t="s">
         <v>45</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="16" t="s">
         <v>74</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="16" t="s">
         <v>75</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="16" t="s">
         <v>76</v>
       </c>
@@ -6352,7 +6351,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20" s="15" t="s">
         <v>77</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E21" s="15" t="s">
         <v>78</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E22" s="15" t="s">
         <v>214</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E23" s="15" t="s">
         <v>206</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E24" s="15" t="s">
         <v>207</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="E25" s="15" t="s">
         <v>205</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E27" s="15" t="s">
         <v>228</v>
       </c>
@@ -6424,23 +6423,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
-    <col min="28" max="28" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="28" max="28" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2001</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2002</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2003</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2004</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2005</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2006</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2007</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2008</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2009</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2010</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
@@ -7151,7 +7150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2012</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2013</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2014</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2015</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2016</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2017</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2018</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2019</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
@@ -7654,91 +7653,91 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2023</v>
       </c>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2025</v>
       </c>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
@@ -7753,7 +7752,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -7768,7 +7767,7 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
     </row>
-    <row r="51" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -7783,7 +7782,7 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
     </row>
-    <row r="52" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -7798,7 +7797,7 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
     </row>
-    <row r="53" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -7813,7 +7812,7 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
     </row>
-    <row r="54" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -7828,7 +7827,7 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
     </row>
-    <row r="55" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -7843,7 +7842,7 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
     </row>
-    <row r="56" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -7858,7 +7857,7 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
     </row>
-    <row r="57" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -7873,7 +7872,7 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
     </row>
-    <row r="58" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -7888,7 +7887,7 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
     </row>
-    <row r="59" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
@@ -7903,7 +7902,7 @@
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
     </row>
-    <row r="60" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -7918,7 +7917,7 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
     </row>
-    <row r="61" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -7933,7 +7932,7 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
     </row>
-    <row r="62" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
@@ -7948,7 +7947,7 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
     </row>
-    <row r="63" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
@@ -7963,7 +7962,7 @@
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
     </row>
-    <row r="64" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
@@ -7978,7 +7977,7 @@
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
     </row>
-    <row r="65" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
@@ -7993,7 +7992,7 @@
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
     </row>
-    <row r="66" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
@@ -8008,7 +8007,7 @@
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
     </row>
-    <row r="67" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
@@ -8023,7 +8022,7 @@
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
     </row>
-    <row r="68" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
@@ -8038,7 +8037,7 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
     </row>
-    <row r="69" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
@@ -8053,7 +8052,7 @@
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
     </row>
-    <row r="70" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
@@ -8068,7 +8067,7 @@
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
     </row>
-    <row r="71" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
@@ -8083,7 +8082,7 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
     </row>
-    <row r="72" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
@@ -8098,7 +8097,7 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
     </row>
-    <row r="73" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
@@ -8113,7 +8112,7 @@
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
     </row>
-    <row r="74" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
@@ -8128,7 +8127,7 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
     </row>
-    <row r="75" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
@@ -8143,7 +8142,7 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
     </row>
-    <row r="76" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
@@ -8158,7 +8157,7 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
     </row>
-    <row r="77" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
@@ -8173,7 +8172,7 @@
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
     </row>
-    <row r="78" spans="29:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
@@ -8191,7 +8190,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8200,79 +8199,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$J$2:$J$17</xm:f>
           </x14:formula1>
           <xm:sqref>T41 AF1:AF94 U42:U1048576 N29 U1:U40 J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>R32:R33 R35 AC41:AC51 AC32:AC33 AC35 R38:R39 AC38:AC39 R42:R46 R49:R51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>G32:G33 R34 R36:R37 G36:G38 AC36:AC37 AC34 G41:G43 G45:G46 G48:G71</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$M$2:$M$23</xm:f>
           </x14:formula1>
           <xm:sqref>AI1:AI94 M30:M1048576 X1:X1048576 M1:M28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$9</xm:f>
           </x14:formula1>
           <xm:sqref>AL1:AL94 AA1:AA1048576 P1:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$14</xm:f>
           </x14:formula1>
           <xm:sqref>Y49:Y1048576 N41 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 Y1:Y8 Y12:Y14 Y17:Y35 N21:N23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$14</xm:f>
           </x14:formula1>
           <xm:sqref>O29 AG1:AG94 V42:V1048576 U41 V1:V40 K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$H$2:$H$21</xm:f>
           </x14:formula1>
           <xm:sqref>M29 AE1:AE94 T42:T1048576 T1:T40 I1:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>R47:R48 G30:G31 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 R2:R27 G2:G27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
           <xm:sqref>Y48 Y9:Y11 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 Y15:Y16 N1:N20 N24:N28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$13</xm:f>
           </x14:formula1>
           <xm:sqref>G28:G29 AC28:AC29 R28:R29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$E$2:$E$32</xm:f>
           </x14:formula1>
           <xm:sqref>AD1:AD94 S1:S1048576 H1:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$E$2:$E$39</xm:f>
           </x14:formula1>

--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="4" r:id="rId1"/>
@@ -1815,11 +1815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6426,7 +6426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="4" r:id="rId1"/>
@@ -1362,20 +1362,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1393,6 +1379,18 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1417,7 +1415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,9 +1449,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1484,19 +1479,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4798,7 +4793,7 @@
       <c r="A40" s="2">
         <v>3601</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="2">
@@ -6001,417 +5996,417 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="16" customWidth="1"/>
-    <col min="20" max="22" width="9" style="16"/>
-    <col min="23" max="23" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="16"/>
-    <col min="25" max="29" width="7.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="15" customWidth="1"/>
+    <col min="20" max="22" width="9" style="15"/>
+    <col min="23" max="23" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="15"/>
+    <col min="25" max="29" width="7.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>0</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="16" t="s">
+      <c r="J7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="M9" s="16" t="s">
+      <c r="J9" s="16"/>
+      <c r="M9" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="M10" s="16" t="s">
+      <c r="J10" s="16"/>
+      <c r="M10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J12" s="17"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>233</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25" spans="5:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6426,8 +6421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6562,7 +6557,7 @@
       <c r="A2" s="2">
         <v>2001</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>188</v>
       </c>
       <c r="C2" s="2">
@@ -6627,7 +6622,7 @@
       <c r="A3" s="2">
         <v>2002</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>190</v>
       </c>
       <c r="C3" s="2">
@@ -6692,7 +6687,7 @@
       <c r="A4" s="2">
         <v>2003</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="2">
@@ -6757,7 +6752,7 @@
       <c r="A5" s="2">
         <v>2004</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>194</v>
       </c>
       <c r="C5" s="2">
@@ -6798,7 +6793,7 @@
       <c r="A6" s="2">
         <v>2005</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C6" s="2">
@@ -6839,7 +6834,7 @@
       <c r="A7" s="2">
         <v>2006</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>197</v>
       </c>
       <c r="C7" s="2">
@@ -6877,7 +6872,7 @@
       <c r="A8" s="2">
         <v>2007</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="24" t="s">
         <v>250</v>
       </c>
       <c r="C8" s="2">
@@ -6918,7 +6913,7 @@
       <c r="A9" s="2">
         <v>2008</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>249</v>
       </c>
       <c r="C9" s="2">
@@ -6986,7 +6981,7 @@
       <c r="A10" s="2">
         <v>2009</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>248</v>
       </c>
       <c r="C10" s="2">
@@ -7051,7 +7046,7 @@
       <c r="A11" s="2">
         <v>2010</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>251</v>
       </c>
       <c r="C11" s="2">
@@ -7116,7 +7111,7 @@
       <c r="A12" s="2">
         <v>2011</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>252</v>
       </c>
       <c r="C12" s="2">
@@ -7154,7 +7149,7 @@
       <c r="A13" s="2">
         <v>2012</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>262</v>
       </c>
       <c r="C13" s="2">
@@ -7192,7 +7187,7 @@
       <c r="A14" s="2">
         <v>2013</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="24" t="s">
         <v>253</v>
       </c>
       <c r="C14" s="2">
@@ -7230,7 +7225,7 @@
       <c r="A15" s="2">
         <v>2014</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="25" t="s">
         <v>254</v>
       </c>
       <c r="C15" s="2">
@@ -7295,7 +7290,7 @@
       <c r="A16" s="2">
         <v>2015</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="24" t="s">
         <v>255</v>
       </c>
       <c r="C16" s="2">
@@ -7360,7 +7355,7 @@
       <c r="A17" s="2">
         <v>2016</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C17" s="2">
@@ -7428,7 +7423,7 @@
       <c r="A18" s="2">
         <v>2017</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>257</v>
       </c>
       <c r="C18" s="2">
@@ -7466,7 +7461,7 @@
       <c r="A19" s="2">
         <v>2018</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>258</v>
       </c>
       <c r="C19" s="2">
@@ -7504,7 +7499,7 @@
       <c r="A20" s="2">
         <v>2019</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>259</v>
       </c>
       <c r="C20" s="2">
@@ -7542,7 +7537,7 @@
       <c r="A21" s="2">
         <v>2020</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>261</v>
       </c>
       <c r="C21" s="2">
@@ -7581,7 +7576,7 @@
       <c r="A22" s="2">
         <v>2021</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>260</v>
       </c>
       <c r="C22" s="2">
@@ -7619,7 +7614,7 @@
       <c r="A23" s="2">
         <v>2022</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C23" s="2">
@@ -7657,85 +7652,85 @@
       <c r="A24" s="2">
         <v>2023</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2025</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC49" s="2"/>

--- a/企劃/戰士卡牌和怪物卡牌 0626.xlsx
+++ b/企劃/戰士卡牌和怪物卡牌 0626.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="269">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,10 +473,6 @@
   </si>
   <si>
     <t xml:space="preserve">野蠻之力 </t>
-  </si>
-  <si>
-    <t>利斬擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抽排血戰</t>
@@ -661,10 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>燥狂血戰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,10 +710,6 @@
   </si>
   <si>
     <t>炸彈!炸彈!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血封印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1113,21 +1101,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{3901}、{3901}、{3901}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>永續</t>
   </si>
   <si>
-    <t>{3801}、{3801}、{3801}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般攻擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法傷害</t>
   </si>
   <si>
@@ -1200,6 +1176,49 @@
   </si>
   <si>
     <t>超量施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3091}、{3091}、{3091}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3081}、{3081}、{3081}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪</t>
+  </si>
+  <si>
+    <t>利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰凍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉乾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惡魔契約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1001}、{1001}、{1001}、{1001}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1008}、{1008}、{1008}、{1008}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,7 +1226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1277,13 +1296,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Malgun Gothic Semilight"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1392,6 +1404,22 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1415,7 +1443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1446,19 +1474,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1467,31 +1492,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1808,13 +1839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1969,8 +2000,8 @@
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>244</v>
+      <c r="B2" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2070,18 +2101,18 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>240</v>
+        <v>1102</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2108,34 +2139,7 @@
         <v>19</v>
       </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -2153,10 +2157,10 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>1003</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2189,13 +2193,13 @@
         <v>19</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" t="s">
         <v>17</v>
       </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s">
         <v>17</v>
@@ -2213,10 +2217,10 @@
         <v>17</v>
       </c>
       <c r="AA5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -2234,10 +2238,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2267,16 +2271,16 @@
         <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
         <v>17</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T6" t="s">
         <v>17</v>
@@ -2297,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="AB6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -2315,10 +2319,10 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1006</v>
+        <v>1104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2330,10 +2334,10 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -2351,7 +2355,34 @@
         <v>19</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -2369,10 +2400,10 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2381,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -2402,40 +2433,37 @@
         <v>17</v>
       </c>
       <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="s">
         <v>19</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="T8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" t="s">
-        <v>234</v>
-      </c>
-      <c r="V8" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>235</v>
+      <c r="AB8">
+        <v>10</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -2453,10 +2481,10 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1008</v>
+        <v>1105</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2465,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -2486,10 +2514,10 @@
         <v>17</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" t="s">
         <v>17</v>
@@ -2501,13 +2529,10 @@
         <v>17</v>
       </c>
       <c r="U9" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="V9" t="s">
         <v>17</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="X9" t="s">
         <v>17</v>
@@ -2519,7 +2544,7 @@
         <v>19</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -2537,10 +2562,10 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2552,10 +2577,10 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -2567,43 +2592,13 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="P10" t="s">
         <v>19</v>
       </c>
       <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" t="s">
-        <v>234</v>
-      </c>
-      <c r="V10" t="s">
-        <v>17</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="X10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2621,10 +2616,10 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2651,45 +2646,44 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="P11" t="s">
         <v>19</v>
       </c>
       <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="T11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="V11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>108</v>
       </c>
       <c r="X11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="s">
         <v>21</v>
       </c>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2706,10 +2700,10 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1011</v>
+        <v>1107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2745,34 +2739,34 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" t="s">
+        <v>17</v>
       </c>
       <c r="U12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="V12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>108</v>
       </c>
       <c r="X12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="s">
         <v>21</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -2790,51 +2784,74 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
-      </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" t="s">
+        <v>231</v>
+      </c>
+      <c r="V13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -2851,51 +2868,74 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1013</v>
+        <v>1108</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
       </c>
       <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" t="s">
+        <v>231</v>
+      </c>
+      <c r="V14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -2912,16 +2952,16 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1014</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>127</v>
+        <v>1009</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -2942,17 +2982,44 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="P15" t="s">
         <v>19</v>
       </c>
       <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>231</v>
+      </c>
+      <c r="V15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -2969,10 +3036,10 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1015</v>
+        <v>1109</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2984,7 +3051,7 @@
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -2999,41 +3066,43 @@
         <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="S16" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U16" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="V16" t="s">
         <v>17</v>
       </c>
+      <c r="W16" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="X16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="s">
         <v>21</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -3051,47 +3120,75 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" t="s">
+        <v>231</v>
+      </c>
+      <c r="V17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="AA17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="2">
-        <v>1014</v>
-      </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -3108,10 +3205,10 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1017</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>128</v>
+        <v>1011</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3120,62 +3217,61 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="S18" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="V18" t="s">
         <v>21</v>
       </c>
-      <c r="W18" t="s">
-        <v>130</v>
+      <c r="W18" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="X18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z18" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
       <c r="AA18" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AB18">
-        <v>2</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -3193,10 +3289,10 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1018</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>139</v>
+        <v>1012</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3204,62 +3300,57 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="T19" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" t="s">
+        <v>17</v>
+      </c>
+      <c r="X19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="s">
         <v>19</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-      <c r="R19" t="s">
-        <v>83</v>
-      </c>
-      <c r="S19" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" t="s">
-        <v>84</v>
-      </c>
-      <c r="U19" t="s">
-        <v>234</v>
-      </c>
-      <c r="V19" t="s">
-        <v>86</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="X19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -3280,10 +3371,10 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1019</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>140</v>
+        <v>1013</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3291,62 +3382,60 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" t="s">
-        <v>80</v>
-      </c>
-      <c r="M20" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="S20" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="U20" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>86</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="X20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z20" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -3364,72 +3453,47 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1020</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>134</v>
+        <v>1014</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="N21" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="Q21">
-        <v>5</v>
-      </c>
-      <c r="R21" t="s">
-        <v>129</v>
-      </c>
-      <c r="S21" t="s">
-        <v>138</v>
-      </c>
-      <c r="T21" t="s">
-        <v>136</v>
-      </c>
-      <c r="U21" t="s">
-        <v>136</v>
-      </c>
-      <c r="V21" t="s">
-        <v>136</v>
-      </c>
-      <c r="X21" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="AA21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -3446,10 +3510,10 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1021</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>131</v>
+        <v>1015</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3458,60 +3522,60 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="P22" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="S22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="T22" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="X22" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -3528,83 +3592,47 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1022</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>132</v>
+        <v>1016</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" t="s">
-        <v>88</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="P23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23" t="s">
-        <v>83</v>
-      </c>
-      <c r="S23" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" t="s">
-        <v>90</v>
-      </c>
-      <c r="U23" t="s">
-        <v>95</v>
-      </c>
-      <c r="V23" t="s">
-        <v>86</v>
-      </c>
-      <c r="W23" t="s">
-        <v>98</v>
-      </c>
-      <c r="X23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>-1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1014</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -3621,10 +3649,10 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1023</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>1017</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3633,67 +3661,62 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
       </c>
       <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" t="s">
+        <v>17</v>
+      </c>
+      <c r="U24" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" t="s">
+        <v>129</v>
+      </c>
+      <c r="X24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB24">
         <v>2</v>
-      </c>
-      <c r="R24" t="s">
-        <v>83</v>
-      </c>
-      <c r="S24" t="s">
-        <v>79</v>
-      </c>
-      <c r="T24" t="s">
-        <v>90</v>
-      </c>
-      <c r="U24" t="s">
-        <v>89</v>
-      </c>
-      <c r="V24" t="s">
-        <v>86</v>
-      </c>
-      <c r="W24" t="s">
-        <v>102</v>
-      </c>
-      <c r="X24" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -3711,47 +3734,75 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3001</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>141</v>
+        <v>1117</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" t="s">
-        <v>93</v>
-      </c>
-      <c r="P25" t="s">
-        <v>66</v>
-      </c>
       <c r="Q25">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -3768,28 +3819,28 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3002</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>142</v>
+        <v>1018</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
         <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
         <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
         <v>80</v>
@@ -3798,17 +3849,47 @@
         <v>80</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="Q26">
-        <v>10</v>
-      </c>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>83</v>
+      </c>
+      <c r="S26" t="s">
+        <v>45</v>
+      </c>
+      <c r="T26" t="s">
+        <v>84</v>
+      </c>
+      <c r="U26" t="s">
+        <v>231</v>
+      </c>
+      <c r="V26" t="s">
+        <v>86</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -3825,47 +3906,77 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3003</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>227</v>
+        <v>1118</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>231</v>
+      </c>
+      <c r="V27" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" t="s">
-        <v>93</v>
-      </c>
-      <c r="P27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
@@ -3882,10 +3993,10 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3101</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>143</v>
+        <v>1019</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3897,58 +4008,61 @@
         <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
         <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" t="s">
+        <v>84</v>
+      </c>
+      <c r="U28" t="s">
+        <v>231</v>
+      </c>
+      <c r="V28" t="s">
         <v>86</v>
       </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28" t="s">
-        <v>104</v>
-      </c>
-      <c r="S28" t="s">
-        <v>78</v>
-      </c>
-      <c r="T28" t="s">
-        <v>105</v>
-      </c>
-      <c r="U28" t="s">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s">
-        <v>81</v>
+      <c r="W28" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="X28" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB28">
         <v>2</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -3966,47 +4080,77 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3102</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>144</v>
+        <v>1119</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>83</v>
+      </c>
+      <c r="S29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>231</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X29" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q29">
+      <c r="AA29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB29">
         <v>2</v>
       </c>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -4023,10 +4167,10 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3201</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>146</v>
+        <v>1020</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4035,59 +4179,59 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="S30" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>26</v>
+        <v>137</v>
+      </c>
+      <c r="T30" t="s">
+        <v>135</v>
       </c>
       <c r="U30" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="V30" t="s">
-        <v>17</v>
-      </c>
-      <c r="W30" s="2"/>
+        <v>135</v>
+      </c>
       <c r="X30" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="Z30" s="2"/>
       <c r="AA30" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -4105,10 +4249,10 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3202</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>147</v>
+        <v>1120</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4117,59 +4261,59 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N31" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="R31" t="s">
+        <v>63</v>
+      </c>
+      <c r="S31" t="s">
+        <v>137</v>
+      </c>
+      <c r="T31" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" t="s">
+        <v>63</v>
+      </c>
+      <c r="V31" t="s">
+        <v>63</v>
+      </c>
+      <c r="X31" t="s">
+        <v>63</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="Z31" s="2"/>
       <c r="AA31" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -4187,28 +4331,28 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3203</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>148</v>
+        <v>1021</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s">
         <v>80</v>
@@ -4217,14 +4361,42 @@
         <v>80</v>
       </c>
       <c r="N32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s">
+        <v>222</v>
+      </c>
+      <c r="T32" t="s">
+        <v>90</v>
+      </c>
+      <c r="U32" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>-2</v>
-      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
@@ -4241,10 +4413,10 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3301</v>
+        <v>1022</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4252,64 +4424,71 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
-        <v>19</v>
+      <c r="G33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" t="s">
+        <v>87</v>
+      </c>
+      <c r="N33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>97</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="S33" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="U33" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="V33" t="s">
-        <v>153</v>
+        <v>86</v>
+      </c>
+      <c r="W33" t="s">
+        <v>98</v>
       </c>
       <c r="X33" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z33">
-        <v>3</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB33">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>-1</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -4327,10 +4506,10 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3302</v>
+        <v>1023</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4339,62 +4518,67 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="L34" t="s">
+        <v>101</v>
       </c>
       <c r="M34" t="s">
         <v>80</v>
       </c>
       <c r="N34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34" t="s">
+        <v>83</v>
+      </c>
+      <c r="S34" t="s">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s">
+        <v>90</v>
+      </c>
+      <c r="U34" t="s">
+        <v>89</v>
+      </c>
+      <c r="V34" t="s">
+        <v>86</v>
+      </c>
+      <c r="W34" t="s">
+        <v>102</v>
+      </c>
+      <c r="X34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z34" s="2">
         <v>1</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U34" t="s">
-        <v>156</v>
-      </c>
-      <c r="V34" t="s">
-        <v>19</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="AA34" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AB34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -4412,22 +4596,22 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3303</v>
+        <v>3001</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
         <v>80</v>
@@ -4442,47 +4626,17 @@
         <v>80</v>
       </c>
       <c r="N35" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" t="s">
-        <v>152</v>
-      </c>
-      <c r="T35" t="s">
-        <v>34</v>
-      </c>
-      <c r="U35" t="s">
-        <v>152</v>
-      </c>
-      <c r="V35" t="s">
-        <v>19</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="X35" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB35">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
@@ -4499,77 +4653,47 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3401</v>
+        <v>3002</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N36" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36" t="s">
-        <v>17</v>
-      </c>
-      <c r="S36" t="s">
-        <v>18</v>
-      </c>
-      <c r="T36" t="s">
-        <v>17</v>
-      </c>
-      <c r="U36" t="s">
-        <v>163</v>
-      </c>
-      <c r="V36" t="s">
-        <v>19</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="X36" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB36">
         <v>10</v>
       </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
@@ -4586,83 +4710,47 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3402</v>
+        <v>3003</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="N37" t="s">
+        <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S37" t="s">
-        <v>152</v>
-      </c>
-      <c r="T37" t="s">
-        <v>34</v>
-      </c>
-      <c r="U37" t="s">
-        <v>163</v>
-      </c>
-      <c r="V37" t="s">
-        <v>19</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="X37" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z37">
         <v>3</v>
       </c>
-      <c r="AA37" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB37">
-        <v>5</v>
-      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
@@ -4679,47 +4767,73 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3501</v>
+        <v>3011</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s">
+        <v>104</v>
+      </c>
+      <c r="S38" t="s">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s">
+        <v>105</v>
+      </c>
+      <c r="U38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s">
+        <v>81</v>
+      </c>
+      <c r="X38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB38">
         <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s">
-        <v>152</v>
-      </c>
-      <c r="I38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O38">
-        <v>10</v>
-      </c>
-      <c r="P38" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q38">
-        <v>10</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -4737,10 +4851,10 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3502</v>
+        <v>3012</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4749,10 +4863,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
         <v>80</v>
@@ -4767,14 +4881,17 @@
         <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="Q39">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
@@ -4789,110 +4906,94 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
     </row>
-    <row r="40" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>3601</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3021</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40">
         <v>3</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="2">
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U40" t="s">
+        <v>17</v>
+      </c>
+      <c r="V40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z40" s="2">
         <v>1</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AA40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3602</v>
+        <v>3022</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4901,61 +5002,59 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H41" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" t="s">
-        <v>177</v>
-      </c>
-      <c r="M41" t="s">
-        <v>87</v>
-      </c>
-      <c r="N41" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41">
+      <c r="S41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z41" s="2">
         <v>1</v>
       </c>
-      <c r="P41" t="s">
-        <v>55</v>
-      </c>
-      <c r="R41" t="s">
-        <v>63</v>
-      </c>
-      <c r="S41" t="s">
-        <v>22</v>
-      </c>
-      <c r="T41" t="s">
-        <v>89</v>
-      </c>
-      <c r="U41" t="s">
-        <v>55</v>
-      </c>
-      <c r="V41" t="s">
-        <v>174</v>
-      </c>
-      <c r="X41" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB41">
-        <v>3</v>
+      <c r="AA41" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -4973,10 +5072,10 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3701</v>
+        <v>3023</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4985,31 +5084,31 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="J42" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="M42" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>19</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>-2</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
@@ -5027,46 +5126,75 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3801</v>
+        <v>3031</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" t="s">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s">
-        <v>175</v>
-      </c>
-      <c r="O43">
-        <v>99</v>
-      </c>
-      <c r="P43" t="s">
-        <v>173</v>
+        <v>80</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="R43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" t="s">
+        <v>151</v>
+      </c>
+      <c r="T43" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" t="s">
+        <v>17</v>
+      </c>
+      <c r="V43" t="s">
+        <v>152</v>
+      </c>
+      <c r="X43" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
@@ -5084,10 +5212,10 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3802</v>
+        <v>3032</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5096,58 +5224,62 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="M44" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="N44" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q44">
-        <v>10</v>
-      </c>
-      <c r="R44" t="s">
-        <v>175</v>
-      </c>
-      <c r="S44" t="s">
-        <v>138</v>
-      </c>
-      <c r="T44" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="U44" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="V44" t="s">
-        <v>175</v>
-      </c>
-      <c r="X44" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>243</v>
+        <v>19</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -5165,43 +5297,76 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3901</v>
+        <v>3033</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" t="s">
-        <v>182</v>
-      </c>
-      <c r="M45" t="s">
-        <v>182</v>
-      </c>
-      <c r="N45" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>15</v>
+      <c r="R45" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" t="s">
+        <v>151</v>
+      </c>
+      <c r="T45" t="s">
+        <v>34</v>
+      </c>
+      <c r="U45" t="s">
+        <v>151</v>
+      </c>
+      <c r="V45" t="s">
+        <v>19</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z45">
+        <v>3</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -5219,43 +5384,76 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3902</v>
+        <v>3041</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>162</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" t="s">
-        <v>182</v>
-      </c>
-      <c r="M46" t="s">
-        <v>182</v>
-      </c>
-      <c r="N46" t="s">
-        <v>17</v>
-      </c>
-      <c r="P46" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>241</v>
+      <c r="R46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" t="s">
+        <v>18</v>
+      </c>
+      <c r="T46" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" t="s">
+        <v>162</v>
+      </c>
+      <c r="V46" t="s">
+        <v>19</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB46">
+        <v>10</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
@@ -5273,10 +5471,10 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3903</v>
+        <v>3042</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5285,58 +5483,70 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="M47" t="s">
-        <v>63</v>
-      </c>
-      <c r="N47" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="R47" t="s">
+        <v>24</v>
       </c>
       <c r="S47" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="T47" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U47" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="V47" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="X47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB47">
+        <v>5</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -5354,70 +5564,47 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3904</v>
+        <v>3051</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>182</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L48" s="2"/>
       <c r="M48" t="s">
-        <v>182</v>
-      </c>
-      <c r="N48" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q48" s="2">
+        <v>62</v>
+      </c>
+      <c r="Q48">
         <v>10</v>
-      </c>
-      <c r="R48" t="s">
-        <v>63</v>
-      </c>
-      <c r="S48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T48" t="s">
-        <v>63</v>
-      </c>
-      <c r="U48" t="s">
-        <v>63</v>
-      </c>
-      <c r="V48" t="s">
-        <v>63</v>
-      </c>
-      <c r="X48" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB48">
-        <v>35</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
@@ -5433,23 +5620,174 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
     </row>
-    <row r="49" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-    </row>
-    <row r="50" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>3061</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3062</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" t="s">
+        <v>175</v>
+      </c>
+      <c r="M50" t="s">
+        <v>87</v>
+      </c>
+      <c r="N50" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>55</v>
+      </c>
+      <c r="R50" t="s">
+        <v>63</v>
+      </c>
+      <c r="S50" t="s">
+        <v>22</v>
+      </c>
+      <c r="T50" t="s">
+        <v>89</v>
+      </c>
+      <c r="U50" t="s">
+        <v>55</v>
+      </c>
+      <c r="V50" t="s">
+        <v>172</v>
+      </c>
+      <c r="X50" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -5464,7 +5802,46 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
     </row>
-    <row r="51" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3071</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" t="s">
+        <v>173</v>
+      </c>
+      <c r="K51" t="s">
+        <v>173</v>
+      </c>
+      <c r="M51" t="s">
+        <v>70</v>
+      </c>
+      <c r="N51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51" t="s">
+        <v>178</v>
+      </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -5479,7 +5856,49 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
     </row>
-    <row r="52" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3081</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" t="s">
+        <v>179</v>
+      </c>
+      <c r="N52" t="s">
+        <v>173</v>
+      </c>
+      <c r="O52">
+        <v>99</v>
+      </c>
+      <c r="P52" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -5494,7 +5913,73 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
     </row>
-    <row r="53" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3082</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53" t="s">
+        <v>173</v>
+      </c>
+      <c r="S53" t="s">
+        <v>137</v>
+      </c>
+      <c r="T53" t="s">
+        <v>17</v>
+      </c>
+      <c r="U53" t="s">
+        <v>180</v>
+      </c>
+      <c r="V53" t="s">
+        <v>173</v>
+      </c>
+      <c r="X53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>259</v>
+      </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -5509,7 +5994,46 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
     </row>
-    <row r="54" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3091</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>180</v>
+      </c>
+      <c r="M54" t="s">
+        <v>180</v>
+      </c>
+      <c r="N54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>15</v>
+      </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -5524,7 +6048,46 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
     </row>
-    <row r="55" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3092</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>180</v>
+      </c>
+      <c r="M55" t="s">
+        <v>180</v>
+      </c>
+      <c r="N55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -5539,7 +6102,73 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
     </row>
-    <row r="56" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3093</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>180</v>
+      </c>
+      <c r="M56" t="s">
+        <v>180</v>
+      </c>
+      <c r="N56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P56" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>10</v>
+      </c>
+      <c r="R56" t="s">
+        <v>63</v>
+      </c>
+      <c r="S56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T56" t="s">
+        <v>63</v>
+      </c>
+      <c r="U56" t="s">
+        <v>63</v>
+      </c>
+      <c r="V56" t="s">
+        <v>63</v>
+      </c>
+      <c r="X56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB56">
+        <v>35</v>
+      </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -5554,7 +6183,46 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
     </row>
-    <row r="57" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3101</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" t="s">
+        <v>63</v>
+      </c>
+      <c r="N57" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>2</v>
+      </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -5569,7 +6237,46 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
     </row>
-    <row r="58" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3102</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>63</v>
+      </c>
+      <c r="M58" t="s">
+        <v>63</v>
+      </c>
+      <c r="N58" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>4</v>
+      </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -5584,7 +6291,46 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
     </row>
-    <row r="59" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3103</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M59" t="s">
+        <v>63</v>
+      </c>
+      <c r="N59" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>8</v>
+      </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
@@ -5599,7 +6345,48 @@
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
     </row>
-    <row r="60" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3104</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>2</v>
+      </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -5614,7 +6401,48 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
     </row>
-    <row r="61" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3105</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>4</v>
+      </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -5629,7 +6457,48 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
     </row>
-    <row r="62" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3106</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>6</v>
+      </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
@@ -5644,7 +6513,50 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
     </row>
-    <row r="63" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3107</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I63" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>2</v>
+      </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
@@ -5659,7 +6571,50 @@
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
     </row>
-    <row r="64" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3108</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3</v>
+      </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
@@ -5674,7 +6629,50 @@
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
     </row>
-    <row r="65" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3109</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>5</v>
+      </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
@@ -5689,7 +6687,46 @@
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
     </row>
-    <row r="66" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3110</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" t="s">
+        <v>63</v>
+      </c>
+      <c r="K66" t="s">
+        <v>63</v>
+      </c>
+      <c r="M66" t="s">
+        <v>63</v>
+      </c>
+      <c r="N66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>3</v>
+      </c>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
@@ -5704,7 +6741,46 @@
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
     </row>
-    <row r="67" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3111</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" t="s">
+        <v>63</v>
+      </c>
+      <c r="M67" t="s">
+        <v>63</v>
+      </c>
+      <c r="N67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>6</v>
+      </c>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
@@ -5719,7 +6795,46 @@
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
     </row>
-    <row r="68" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3112</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" t="s">
+        <v>63</v>
+      </c>
+      <c r="M68" t="s">
+        <v>63</v>
+      </c>
+      <c r="N68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>12</v>
+      </c>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
@@ -5734,7 +6849,73 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
     </row>
-    <row r="69" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3113</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>63</v>
+      </c>
+      <c r="J69" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" t="s">
+        <v>63</v>
+      </c>
+      <c r="M69" t="s">
+        <v>63</v>
+      </c>
+      <c r="N69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>3</v>
+      </c>
+      <c r="R69" t="s">
+        <v>17</v>
+      </c>
+      <c r="S69" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" t="s">
+        <v>17</v>
+      </c>
+      <c r="U69" t="s">
+        <v>17</v>
+      </c>
+      <c r="V69" t="s">
+        <v>17</v>
+      </c>
+      <c r="X69" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB69">
+        <v>2</v>
+      </c>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
@@ -5749,7 +6930,7 @@
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
     </row>
-    <row r="70" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
@@ -5764,7 +6945,7 @@
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
     </row>
-    <row r="71" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
@@ -5779,7 +6960,7 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
     </row>
-    <row r="72" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
@@ -5794,7 +6975,7 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
     </row>
-    <row r="73" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
@@ -5809,7 +6990,7 @@
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
     </row>
-    <row r="74" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
@@ -5824,7 +7005,7 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
     </row>
-    <row r="75" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
@@ -5839,7 +7020,7 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
     </row>
-    <row r="76" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
@@ -5854,7 +7035,7 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
     </row>
-    <row r="77" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
@@ -5869,7 +7050,7 @@
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
     </row>
-    <row r="78" spans="29:41" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
@@ -5884,10 +7065,130 @@
       <c r="AN78" s="2"/>
       <c r="AO78" s="2"/>
     </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="2"/>
+      <c r="AO79" s="2"/>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2"/>
+      <c r="AI80" s="2"/>
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="2"/>
+      <c r="AM80" s="2"/>
+      <c r="AN80" s="2"/>
+      <c r="AO80" s="2"/>
+    </row>
+    <row r="81" spans="29:41" x14ac:dyDescent="0.3">
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="2"/>
+      <c r="AM81" s="2"/>
+      <c r="AN81" s="2"/>
+      <c r="AO81" s="2"/>
+    </row>
+    <row r="82" spans="29:41" x14ac:dyDescent="0.3">
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AO82" s="2"/>
+    </row>
+    <row r="83" spans="29:41" x14ac:dyDescent="0.3">
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+    </row>
+    <row r="84" spans="29:41" x14ac:dyDescent="0.3">
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+      <c r="AL84" s="2"/>
+      <c r="AM84" s="2"/>
+      <c r="AN84" s="2"/>
+      <c r="AO84" s="2"/>
+    </row>
+    <row r="85" spans="29:41" x14ac:dyDescent="0.3">
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="2"/>
+      <c r="AM85" s="2"/>
+      <c r="AN85" s="2"/>
+      <c r="AO85" s="2"/>
+    </row>
+    <row r="86" spans="29:41" x14ac:dyDescent="0.3">
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
+      <c r="AM86" s="2"/>
+      <c r="AN86" s="2"/>
+      <c r="AO86" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 R58:R1048576 AC58:AC94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G80:G1048576 AC66:AC102 R66:R68 R70:R1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5900,85 +7201,85 @@
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G28:G29 AC28:AC29 R28:R29</xm:sqref>
+          <xm:sqref>G38:G39 AC38:AC39 R38:R39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:N2 Y48 N42:N1048576 N30:N40 Y40 AJ36:AJ37 Y36:Y37 N16:N28 N4:N14 AA34</xm:sqref>
+          <xm:sqref>N1:N2 Y56 Y49 AJ46:AJ47 Y46:Y47 N5:N20 N51:N1048576 AA44 Y19:Y20 N22:N38 N40:N49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N3 N15</xm:sqref>
+          <xm:sqref>N21 N3:N4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R27 R47:R48 G47 G44 AC40 R40:R41 AC30:AC31 AC2:AC27 G39:G40 G34:G35 R30:R31 G30:G31 G2:G27</xm:sqref>
+          <xm:sqref>G53 AC49 R49:R50 AC40:AC41 G44:G45 R40:R41 G40:G41 R69 R56 G66:G68 R2:R37 AC2:AC37 G2:G37 G49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$H$2:$H$21</xm:f>
           </x14:formula1>
-          <xm:sqref>M29 T42:T1048576 T1:T40 I1:I1048576 AE1:AE94</xm:sqref>
+          <xm:sqref>M39 T51:T1048576 I1:I1048576 AE1:AE102 T1:T49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$14</xm:f>
           </x14:formula1>
-          <xm:sqref>O29 V42:V1048576 K1:K1048576 V1:V40 U41 AG1:AG94 X34</xm:sqref>
+          <xm:sqref>O39 U50 X44 V51:V1048576 K1:K1048576 AG1:AG102 V1:V49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$N$2:$N$14</xm:f>
           </x14:formula1>
-          <xm:sqref>N41 Y49:Y1048576 Y41:Y47 AJ38:AJ94 Y38:Y39 AJ1:AJ35 Y1:Y33 Y35</xm:sqref>
+          <xm:sqref>N50 Y50:Y55 Y48 Y57:Y1048576 Y45 Y1:Y18 Y21:Y43 AJ1:AJ45 AJ48:AJ102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$P$2:$P$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AL1:AL94 P1:P1048576 AA1:AA33 AA35:AA1048576</xm:sqref>
+          <xm:sqref>AA1:AA43 AL1:AL102 P1:P1048576 AA45:AA1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$M$2:$M$23</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M28 AI1:AI94 M30:M1048576 X1:X33 X35:X1048576 Z34</xm:sqref>
+          <xm:sqref>Z44 X1:X43 M1:M38 AI1:AI102 X45:X1048576 M40:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G32:G33 R34 R36:R37 G36:G38 AC36:AC37 AC34 G41:G43 G45:G46 G48:G71</xm:sqref>
+          <xm:sqref>G42:G43 R44 R46:R47 G46:G48 AC46:AC47 AC44 G50:G52 G54:G65 G69:G79</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>R32:R33 R35 AC41:AC51 AC32:AC33 AC35 R38:R39 AC38:AC39 R42:R46 R49:R51</xm:sqref>
+          <xm:sqref>R42:R43 R45 AC42:AC43 AC45 R48 AC48 R51:R55 R57:R59 AC50:AC59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$J$2:$J$17</xm:f>
           </x14:formula1>
-          <xm:sqref>T41 N29 U42:U1048576 J1:J1048576 AF1:AF94 U1:U40</xm:sqref>
+          <xm:sqref>T50 N39 U51:U1048576 J1:J1048576 AF1:AF102 U1:U49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>表格說明!$E$2:$E$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>R60:R65 AC60:AC65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>表格說明!$E$2:$E$32</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576 AD1:AD94 S1:S1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>表格說明!$E$2:$E$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>R52:R57 AC52:AC57</xm:sqref>
+          <xm:sqref>H1:H1048576 AD1:AD102 S1:S1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5996,418 +7297,418 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="9.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="15" customWidth="1"/>
-    <col min="20" max="22" width="9" style="15"/>
-    <col min="23" max="23" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="15"/>
-    <col min="25" max="29" width="7.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="15"/>
+    <col min="1" max="2" width="5.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="14" customWidth="1"/>
+    <col min="20" max="22" width="9" style="14"/>
+    <col min="23" max="23" width="5.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="14"/>
+    <col min="25" max="29" width="7.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="M9" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="M10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E13" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="15" t="s">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="E25" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="15">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E8" s="15" t="s">
+      <c r="F25" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="M9" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E10" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="M10" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="E25" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6421,7 +7722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6557,8 +7858,8 @@
       <c r="A2" s="2">
         <v>2001</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>188</v>
+      <c r="B2" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -6570,7 +7871,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -6597,7 +7898,7 @@
         <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>26</v>
@@ -6622,8 +7923,8 @@
       <c r="A3" s="2">
         <v>2002</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>190</v>
+      <c r="B3" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -6635,7 +7936,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>34</v>
@@ -6662,7 +7963,7 @@
         <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>32</v>
@@ -6687,8 +7988,8 @@
       <c r="A4" s="2">
         <v>2003</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>191</v>
+      <c r="B4" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -6700,7 +8001,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>34</v>
@@ -6752,8 +8053,8 @@
       <c r="A5" s="2">
         <v>2004</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>194</v>
+      <c r="B5" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -6765,7 +8066,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>17</v>
@@ -6793,8 +8094,8 @@
       <c r="A6" s="2">
         <v>2005</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>193</v>
+      <c r="B6" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -6806,7 +8107,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
@@ -6834,8 +8135,8 @@
       <c r="A7" s="2">
         <v>2006</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>197</v>
+      <c r="B7" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -6847,7 +8148,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>17</v>
@@ -6872,8 +8173,8 @@
       <c r="A8" s="2">
         <v>2007</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>250</v>
+      <c r="B8" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -6885,7 +8186,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>17</v>
@@ -6913,8 +8214,8 @@
       <c r="A9" s="2">
         <v>2008</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>249</v>
+      <c r="B9" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -6953,7 +8254,7 @@
         <v>17</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>17</v>
@@ -6981,8 +8282,8 @@
       <c r="A10" s="2">
         <v>2009</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>248</v>
+      <c r="B10" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -6991,7 +8292,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -7018,7 +8319,7 @@
         <v>17</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>17</v>
@@ -7046,8 +8347,8 @@
       <c r="A11" s="2">
         <v>2010</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>251</v>
+      <c r="B11" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -7056,7 +8357,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -7083,7 +8384,7 @@
         <v>17</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>17</v>
@@ -7111,8 +8412,8 @@
       <c r="A12" s="2">
         <v>2011</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>252</v>
+      <c r="B12" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -7121,7 +8422,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -7149,8 +8450,8 @@
       <c r="A13" s="2">
         <v>2012</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>262</v>
+      <c r="B13" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -7159,7 +8460,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -7187,8 +8488,8 @@
       <c r="A14" s="2">
         <v>2013</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>253</v>
+      <c r="B14" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -7225,8 +8526,8 @@
       <c r="A15" s="2">
         <v>2014</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>254</v>
+      <c r="B15" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
@@ -7235,7 +8536,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>26</v>
@@ -7262,7 +8563,7 @@
         <v>17</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>17</v>
@@ -7290,8 +8591,8 @@
       <c r="A16" s="2">
         <v>2015</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>255</v>
+      <c r="B16" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
@@ -7300,7 +8601,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>26</v>
@@ -7327,7 +8628,7 @@
         <v>17</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>17</v>
@@ -7355,8 +8656,8 @@
       <c r="A17" s="2">
         <v>2016</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>256</v>
+      <c r="B17" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -7392,7 +8693,7 @@
         <v>29</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>34</v>
@@ -7423,8 +8724,8 @@
       <c r="A18" s="2">
         <v>2017</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>257</v>
+      <c r="B18" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
@@ -7433,7 +8734,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>17</v>
@@ -7461,8 +8762,8 @@
       <c r="A19" s="2">
         <v>2018</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>258</v>
+      <c r="B19" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="C19" s="2">
         <v>8</v>
@@ -7471,7 +8772,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>17</v>
@@ -7499,8 +8800,8 @@
       <c r="A20" s="2">
         <v>2019</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>259</v>
+      <c r="B20" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -7537,8 +8838,8 @@
       <c r="A21" s="2">
         <v>2020</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>261</v>
+      <c r="B21" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -7576,8 +8877,8 @@
       <c r="A22" s="2">
         <v>2021</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>260</v>
+      <c r="B22" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -7586,7 +8887,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>17</v>
@@ -7614,8 +8915,8 @@
       <c r="A23" s="2">
         <v>2022</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>263</v>
+      <c r="B23" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -7624,7 +8925,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>17</v>
@@ -7652,85 +8953,85 @@
       <c r="A24" s="2">
         <v>2023</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2025</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="29:41" x14ac:dyDescent="0.3">
       <c r="AC49" s="2"/>
